--- a/etl/operacoes-credito/resources/fields-doc.xlsx
+++ b/etl/operacoes-credito/resources/fields-doc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
   <si>
     <t>codigo</t>
   </si>
@@ -139,9 +139,6 @@
     <t>cnae_subclasse</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -163,10 +160,7 @@
     <t>origem</t>
   </si>
   <si>
-    <t>possui_modalidade</t>
-  </si>
-  <si>
-    <t>ct_possui_modalidade</t>
+    <t/>
   </si>
   <si>
     <t>k</t>
@@ -271,6 +265,9 @@
     <t>carteira_ativa</t>
   </si>
   <si>
+    <t>vl_carteira_ativa</t>
+  </si>
+  <si>
     <t>u</t>
   </si>
   <si>
@@ -292,13 +289,16 @@
     <t>ativo_problematico</t>
   </si>
   <si>
+    <t>vl_ativo_problematico</t>
+  </si>
+  <si>
     <t>Compõe o valor da carteira inadimplida arrastada + parcela da carteira ativa que é problemática (ou seja, com risco entre as classes E e H)</t>
   </si>
   <si>
     <t>Carteira total não problemática</t>
   </si>
   <si>
-    <t>vl_carteira_nao_problematica</t>
+    <t>vl_carteira_saudavel</t>
   </si>
   <si>
     <t>Carteira Ativa - (Ativos Problemáticos - Carteira Inadimplida Arrastada)</t>
@@ -318,19 +318,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -366,18 +360,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -698,7 +695,7 @@
     <col min="5" max="5" style="5" width="30.14785714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="30.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="88.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="117.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="117.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -723,7 +720,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -741,7 +738,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
@@ -757,7 +754,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
@@ -779,7 +776,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
@@ -801,7 +798,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
@@ -823,7 +820,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
@@ -845,7 +842,7 @@
         <v>29</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
@@ -867,7 +864,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
@@ -889,7 +886,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
@@ -901,285 +898,277 @@
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>50</v>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1190,10 +1179,10 @@
       <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>94</v>
+      <c r="E25" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>94</v>
@@ -1201,7 +1190,7 @@
       <c r="G25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
@@ -1210,10 +1199,10 @@
       <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>97</v>
+      <c r="E26" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>97</v>
@@ -1221,7 +1210,7 @@
       <c r="G26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
@@ -1231,7 +1220,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
@@ -1241,7 +1230,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
@@ -1251,7 +1240,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
@@ -1261,7 +1250,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
@@ -1271,7 +1260,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
@@ -1281,7 +1270,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
@@ -1291,7 +1280,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>
@@ -1301,7 +1290,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
@@ -1311,7 +1300,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1"/>
@@ -1321,7 +1310,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1"/>
@@ -1331,7 +1320,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1"/>
@@ -1341,7 +1330,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="3"/>
+      <c r="H38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75">
       <c r="A39" s="1"/>
@@ -1351,7 +1340,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75">
       <c r="A40" s="1"/>
@@ -1361,7 +1350,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="3"/>
+      <c r="H40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
       <c r="A41" s="1"/>
@@ -1371,7 +1360,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
       <c r="A42" s="1"/>
@@ -1381,7 +1370,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="3"/>
+      <c r="H42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
       <c r="A43" s="1"/>
@@ -1391,7 +1380,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="3"/>
+      <c r="H43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
       <c r="A44" s="1"/>
@@ -1401,7 +1390,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="3"/>
+      <c r="H44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75">
       <c r="A45" s="1"/>
@@ -1411,7 +1400,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="3"/>
+      <c r="H45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">
       <c r="A46" s="1"/>
@@ -1421,7 +1410,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
       <c r="A47" s="1"/>
@@ -1431,7 +1420,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="3"/>
+      <c r="H47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
       <c r="A48" s="1"/>
@@ -1441,7 +1430,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">
       <c r="A49" s="1"/>
@@ -1451,7 +1440,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="3"/>
+      <c r="H49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75">
       <c r="A50" s="1"/>
@@ -1461,7 +1450,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="3"/>
+      <c r="H50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75">
       <c r="A51" s="1"/>
@@ -1471,7 +1460,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75">
       <c r="A52" s="1"/>
@@ -1481,7 +1470,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75">
       <c r="A53" s="1"/>
@@ -1491,7 +1480,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="3"/>
+      <c r="H53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75">
       <c r="A54" s="1"/>
@@ -1501,7 +1490,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="3"/>
+      <c r="H54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15.75">
       <c r="A55" s="1"/>
@@ -1511,7 +1500,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75">
       <c r="A56" s="1"/>
@@ -1521,7 +1510,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="3"/>
+      <c r="H56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75">
       <c r="A57" s="1"/>
@@ -1531,7 +1520,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="3"/>
+      <c r="H57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15.75">
       <c r="A58" s="1"/>
@@ -1541,7 +1530,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="3"/>
+      <c r="H58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75">
       <c r="A59" s="1"/>
@@ -1551,7 +1540,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="3"/>
+      <c r="H59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75">
       <c r="A60" s="1"/>
@@ -1561,7 +1550,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="3"/>
+      <c r="H60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75">
       <c r="A61" s="1"/>
@@ -1571,7 +1560,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="3"/>
+      <c r="H61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75">
       <c r="A62" s="1"/>
@@ -1581,7 +1570,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="3"/>
+      <c r="H62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75">
       <c r="A63" s="1"/>
@@ -1591,7 +1580,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="3"/>
+      <c r="H63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
@@ -1601,7 +1590,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="3"/>
+      <c r="H64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15.75">
       <c r="A65" s="1"/>
@@ -1611,7 +1600,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75">
       <c r="A66" s="1"/>
@@ -1621,7 +1610,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="3"/>
+      <c r="H66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="15.75">
       <c r="A67" s="1"/>
@@ -1631,7 +1620,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="3"/>
+      <c r="H67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="15.75">
       <c r="A68" s="1"/>
@@ -1641,7 +1630,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="3"/>
+      <c r="H68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="15.75">
       <c r="A69" s="1"/>
@@ -1651,7 +1640,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="3"/>
+      <c r="H69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="15.75">
       <c r="A70" s="1"/>
@@ -1661,7 +1650,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="3"/>
+      <c r="H70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="15.75">
       <c r="A71" s="1"/>
@@ -1671,7 +1660,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="3"/>
+      <c r="H71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
@@ -1681,7 +1670,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="3"/>
+      <c r="H72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="15.75">
       <c r="A73" s="1"/>
@@ -1691,7 +1680,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="3"/>
+      <c r="H73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="15.75">
       <c r="A74" s="1"/>
@@ -1701,7 +1690,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="3"/>
+      <c r="H74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="15.75">
       <c r="A75" s="1"/>
@@ -1711,7 +1700,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="3"/>
+      <c r="H75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="15.75">
       <c r="A76" s="1"/>
@@ -1721,7 +1710,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="3"/>
+      <c r="H76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="15.75">
       <c r="A77" s="1"/>
@@ -1731,7 +1720,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="3"/>
+      <c r="H77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="15.75">
       <c r="A78" s="1"/>
@@ -1741,7 +1730,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="3"/>
+      <c r="H78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="15.75">
       <c r="A79" s="1"/>
@@ -1751,7 +1740,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="3"/>
+      <c r="H79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="15.75">
       <c r="A80" s="1"/>
@@ -1761,7 +1750,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="3"/>
+      <c r="H80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="15.75">
       <c r="A81" s="1"/>
@@ -1771,7 +1760,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="3"/>
+      <c r="H81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="15.75">
       <c r="A82" s="1"/>
@@ -1781,7 +1770,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="3"/>
+      <c r="H82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="15.75">
       <c r="A83" s="1"/>
@@ -1791,7 +1780,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="3"/>
+      <c r="H83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="15.75">
       <c r="A84" s="1"/>
@@ -1801,7 +1790,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="3"/>
+      <c r="H84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="15.75">
       <c r="A85" s="1"/>
@@ -1811,7 +1800,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="3"/>
+      <c r="H85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="15.75">
       <c r="A86" s="1"/>
@@ -1821,7 +1810,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="3"/>
+      <c r="H86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="15.75">
       <c r="A87" s="1"/>
@@ -1831,7 +1820,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="3"/>
+      <c r="H87" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="15.75">
       <c r="A88" s="1"/>
@@ -1841,7 +1830,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="3"/>
+      <c r="H88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="15.75">
       <c r="A89" s="1"/>
@@ -1851,7 +1840,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="3"/>
+      <c r="H89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="15.75">
       <c r="A90" s="1"/>
@@ -1861,7 +1850,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="3"/>
+      <c r="H90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="15.75">
       <c r="A91" s="1"/>
@@ -1871,7 +1860,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="15.75">
       <c r="A92" s="1"/>
@@ -1881,7 +1870,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="3"/>
+      <c r="H92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15.75">
       <c r="A93" s="1"/>
@@ -1891,7 +1880,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="3"/>
+      <c r="H93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="15.75">
       <c r="A94" s="1"/>
@@ -1901,7 +1890,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="3"/>
+      <c r="H94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="15.75">
       <c r="A95" s="1"/>
@@ -1911,7 +1900,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="3"/>
+      <c r="H95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="15.75">
       <c r="A96" s="1"/>
@@ -1921,7 +1910,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="3"/>
+      <c r="H96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="15.75">
       <c r="A97" s="1"/>
@@ -1931,7 +1920,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="3"/>
+      <c r="H97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="15.75">
       <c r="A98" s="1"/>
@@ -1941,7 +1930,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="3"/>
+      <c r="H98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="15.75">
       <c r="A99" s="1"/>
@@ -1951,7 +1940,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="3"/>
+      <c r="H99" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="15.75">
       <c r="A100" s="1"/>
@@ -1961,7 +1950,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="3"/>
+      <c r="H100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="15.75">
       <c r="A101" s="1"/>
@@ -1971,7 +1960,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="3"/>
+      <c r="H101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="15.75">
       <c r="A102" s="1"/>
@@ -1981,7 +1970,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="3"/>
+      <c r="H102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="15.75">
       <c r="A103" s="1"/>
@@ -1991,7 +1980,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="3"/>
+      <c r="H103" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="15.75">
       <c r="A104" s="1"/>
@@ -2001,7 +1990,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="3"/>
+      <c r="H104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="15.75">
       <c r="A105" s="1"/>
@@ -2011,7 +2000,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="3"/>
+      <c r="H105" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="15.75">
       <c r="A106" s="1"/>
@@ -2021,7 +2010,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="3"/>
+      <c r="H106" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="15.75">
       <c r="A107" s="1"/>
@@ -2031,7 +2020,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="3"/>
+      <c r="H107" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="15.75">
       <c r="A108" s="1"/>
@@ -2041,7 +2030,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="3"/>
+      <c r="H108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="15.75">
       <c r="A109" s="1"/>
@@ -2051,7 +2040,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="3"/>
+      <c r="H109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="15.75">
       <c r="A110" s="1"/>
@@ -2061,7 +2050,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="3"/>
+      <c r="H110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="15.75">
       <c r="A111" s="1"/>
@@ -2071,7 +2060,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="3"/>
+      <c r="H111" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="15.75">
       <c r="A112" s="1"/>
@@ -2081,7 +2070,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="3"/>
+      <c r="H112" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="15.75">
       <c r="A113" s="1"/>
@@ -2091,7 +2080,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="3"/>
+      <c r="H113" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="15.75">
       <c r="A114" s="1"/>
@@ -2101,7 +2090,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="3"/>
+      <c r="H114" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="15.75">
       <c r="A115" s="1"/>
@@ -2111,7 +2100,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="H115" s="3"/>
+      <c r="H115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="15.75">
       <c r="A116" s="1"/>
@@ -2121,7 +2110,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="3"/>
+      <c r="H116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="15.75">
       <c r="A117" s="1"/>
@@ -2131,7 +2120,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="3"/>
+      <c r="H117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="15.75">
       <c r="A118" s="1"/>
@@ -2141,7 +2130,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="3"/>
+      <c r="H118" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="15.75">
       <c r="A119" s="1"/>
@@ -2151,7 +2140,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="3"/>
+      <c r="H119" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="15.75">
       <c r="A120" s="1"/>
@@ -2161,7 +2150,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="3"/>
+      <c r="H120" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="15.75">
       <c r="A121" s="1"/>
@@ -2171,7 +2160,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="3"/>
+      <c r="H121" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="15.75">
       <c r="A122" s="1"/>
@@ -2181,7 +2170,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="3"/>
+      <c r="H122" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="15.75">
       <c r="A123" s="1"/>
@@ -2191,7 +2180,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="3"/>
+      <c r="H123" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="15.75">
       <c r="A124" s="1"/>
@@ -2201,7 +2190,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="3"/>
+      <c r="H124" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="15.75">
       <c r="A125" s="1"/>
@@ -2211,7 +2200,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="3"/>
+      <c r="H125" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="15.75">
       <c r="A126" s="1"/>
@@ -2221,7 +2210,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="3"/>
+      <c r="H126" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="15.75">
       <c r="A127" s="1"/>
@@ -2231,7 +2220,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="3"/>
+      <c r="H127" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="15.75">
       <c r="A128" s="1"/>
@@ -2241,7 +2230,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="3"/>
+      <c r="H128" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="15.75">
       <c r="A129" s="1"/>
@@ -2251,7 +2240,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="3"/>
+      <c r="H129" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="15.75">
       <c r="A130" s="1"/>
@@ -2261,7 +2250,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="3"/>
+      <c r="H130" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="15.75">
       <c r="A131" s="1"/>
@@ -2271,7 +2260,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="3"/>
+      <c r="H131" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="15.75">
       <c r="A132" s="1"/>
@@ -2281,7 +2270,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="3"/>
+      <c r="H132" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="15.75">
       <c r="A133" s="1"/>
@@ -2291,7 +2280,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="H133" s="3"/>
+      <c r="H133" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="15.75">
       <c r="A134" s="1"/>
@@ -2301,7 +2290,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="3"/>
+      <c r="H134" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="15.75">
       <c r="A135" s="1"/>
@@ -2311,7 +2300,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="3"/>
+      <c r="H135" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="15.75">
       <c r="A136" s="1"/>
@@ -2321,7 +2310,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="3"/>
+      <c r="H136" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="15.75">
       <c r="A137" s="1"/>
@@ -2331,7 +2320,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="3"/>
+      <c r="H137" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="15.75">
       <c r="A138" s="1"/>
@@ -2341,7 +2330,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="3"/>
+      <c r="H138" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="15.75">
       <c r="A139" s="1"/>
@@ -2351,7 +2340,7 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="3"/>
+      <c r="H139" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="15.75">
       <c r="A140" s="1"/>
@@ -2361,7 +2350,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="3"/>
+      <c r="H140" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="15.75">
       <c r="A141" s="1"/>
@@ -2371,7 +2360,7 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="3"/>
+      <c r="H141" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="15.75">
       <c r="A142" s="1"/>
@@ -2381,7 +2370,7 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="3"/>
+      <c r="H142" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="15.75">
       <c r="A143" s="1"/>
@@ -2391,7 +2380,7 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="3"/>
+      <c r="H143" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="15.75">
       <c r="A144" s="1"/>
@@ -2401,7 +2390,7 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="3"/>
+      <c r="H144" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="15.75">
       <c r="A145" s="1"/>
@@ -2411,7 +2400,7 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="3"/>
+      <c r="H145" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="15.75">
       <c r="A146" s="1"/>
@@ -2421,7 +2410,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="3"/>
+      <c r="H146" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="15.75">
       <c r="A147" s="1"/>
@@ -2431,7 +2420,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="3"/>
+      <c r="H147" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="15.75">
       <c r="A148" s="1"/>
@@ -2441,7 +2430,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="3"/>
+      <c r="H148" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="15.75">
       <c r="A149" s="1"/>
@@ -2451,7 +2440,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="3"/>
+      <c r="H149" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="15.75">
       <c r="A150" s="1"/>
@@ -2461,7 +2450,7 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="3"/>
+      <c r="H150" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="15.75">
       <c r="A151" s="1"/>
@@ -2471,7 +2460,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="H151" s="3"/>
+      <c r="H151" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="15.75">
       <c r="A152" s="1"/>
@@ -2481,7 +2470,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="3"/>
+      <c r="H152" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="15.75">
       <c r="A153" s="1"/>
@@ -2491,7 +2480,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="3"/>
+      <c r="H153" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="15.75">
       <c r="A154" s="1"/>
@@ -2501,7 +2490,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="3"/>
+      <c r="H154" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="15.75">
       <c r="A155" s="1"/>
@@ -2511,7 +2500,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="3"/>
+      <c r="H155" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="15.75">
       <c r="A156" s="1"/>
@@ -2521,7 +2510,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="3"/>
+      <c r="H156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="15.75">
       <c r="A157" s="1"/>
@@ -2531,7 +2520,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="H157" s="3"/>
+      <c r="H157" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="15.75">
       <c r="A158" s="1"/>
@@ -2541,7 +2530,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="3"/>
+      <c r="H158" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="15.75">
       <c r="A159" s="1"/>
@@ -2551,7 +2540,7 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="H159" s="3"/>
+      <c r="H159" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="15.75">
       <c r="A160" s="1"/>
@@ -2561,7 +2550,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="3"/>
+      <c r="H160" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="15.75">
       <c r="A161" s="1"/>
@@ -2571,7 +2560,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="H161" s="3"/>
+      <c r="H161" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="15.75">
       <c r="A162" s="1"/>
@@ -2581,7 +2570,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="3"/>
+      <c r="H162" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="15.75">
       <c r="A163" s="1"/>
@@ -2591,7 +2580,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="H163" s="3"/>
+      <c r="H163" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="15.75">
       <c r="A164" s="1"/>
@@ -2601,7 +2590,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="3"/>
+      <c r="H164" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="15.75">
       <c r="A165" s="1"/>
@@ -2611,7 +2600,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="3"/>
+      <c r="H165" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="15.75">
       <c r="A166" s="1"/>
@@ -2621,7 +2610,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="H166" s="3"/>
+      <c r="H166" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="15.75">
       <c r="A167" s="1"/>
@@ -2631,7 +2620,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="3"/>
+      <c r="H167" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="15.75">
       <c r="A168" s="1"/>
@@ -2641,7 +2630,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="H168" s="3"/>
+      <c r="H168" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="15.75">
       <c r="A169" s="1"/>
@@ -2651,7 +2640,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="H169" s="3"/>
+      <c r="H169" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="15.75">
       <c r="A170" s="1"/>
@@ -2661,7 +2650,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="3"/>
+      <c r="H170" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="15.75">
       <c r="A171" s="1"/>
@@ -2671,7 +2660,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="H171" s="3"/>
+      <c r="H171" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="15.75">
       <c r="A172" s="1"/>
@@ -2681,7 +2670,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="H172" s="3"/>
+      <c r="H172" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="15.75">
       <c r="A173" s="1"/>
@@ -2691,7 +2680,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="3"/>
+      <c r="H173" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="15.75">
       <c r="A174" s="1"/>
@@ -2701,7 +2690,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="H174" s="3"/>
+      <c r="H174" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="15.75">
       <c r="A175" s="1"/>
@@ -2711,7 +2700,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="H175" s="3"/>
+      <c r="H175" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="15.75">
       <c r="A176" s="1"/>
@@ -2721,7 +2710,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="3"/>
+      <c r="H176" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="15.75">
       <c r="A177" s="1"/>
@@ -2731,7 +2720,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="H177" s="3"/>
+      <c r="H177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="15.75">
       <c r="A178" s="1"/>
@@ -2741,7 +2730,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="H178" s="3"/>
+      <c r="H178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="15.75">
       <c r="A179" s="1"/>
@@ -2751,7 +2740,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="H179" s="3"/>
+      <c r="H179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="15.75">
       <c r="A180" s="1"/>
@@ -2761,7 +2750,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="H180" s="3"/>
+      <c r="H180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="15.75">
       <c r="A181" s="1"/>
@@ -2771,7 +2760,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="H181" s="3"/>
+      <c r="H181" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="15.75">
       <c r="A182" s="1"/>
@@ -2781,7 +2770,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="3"/>
+      <c r="H182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="15.75">
       <c r="A183" s="1"/>
@@ -2791,7 +2780,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="H183" s="3"/>
+      <c r="H183" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="15.75">
       <c r="A184" s="1"/>
@@ -2801,7 +2790,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="H184" s="3"/>
+      <c r="H184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="15.75">
       <c r="A185" s="1"/>
@@ -2811,7 +2800,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="H185" s="3"/>
+      <c r="H185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="15.75">
       <c r="A186" s="1"/>
@@ -2821,7 +2810,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="H186" s="3"/>
+      <c r="H186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="15.75">
       <c r="A187" s="1"/>
@@ -2831,7 +2820,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="H187" s="3"/>
+      <c r="H187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="15.75">
       <c r="A188" s="1"/>
@@ -2841,7 +2830,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="3"/>
+      <c r="H188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="15.75">
       <c r="A189" s="1"/>
@@ -2851,7 +2840,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="3"/>
+      <c r="H189" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="15.75">
       <c r="A190" s="1"/>
@@ -2861,7 +2850,7 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="3"/>
+      <c r="H190" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="15.75">
       <c r="A191" s="1"/>
@@ -2871,7 +2860,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="3"/>
+      <c r="H191" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="15.75">
       <c r="A192" s="1"/>
@@ -2881,7 +2870,7 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="3"/>
+      <c r="H192" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="15.75">
       <c r="A193" s="1"/>
@@ -2891,7 +2880,7 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="3"/>
+      <c r="H193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="15.75">
       <c r="A194" s="1"/>
@@ -2901,7 +2890,7 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="3"/>
+      <c r="H194" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="15.75">
       <c r="A195" s="1"/>
@@ -2911,7 +2900,7 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="3"/>
+      <c r="H195" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="15.75">
       <c r="A196" s="1"/>
@@ -2921,7 +2910,7 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="3"/>
+      <c r="H196" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="15.75">
       <c r="A197" s="1"/>
@@ -2931,7 +2920,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="3"/>
+      <c r="H197" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="15.75">
       <c r="A198" s="1"/>
@@ -2941,7 +2930,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="H198" s="3"/>
+      <c r="H198" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="15.75">
       <c r="A199" s="1"/>
@@ -2951,7 +2940,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="3"/>
+      <c r="H199" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="15.75">
       <c r="A200" s="1"/>
@@ -2961,7 +2950,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="H200" s="3"/>
+      <c r="H200" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="15.75">
       <c r="A201" s="1"/>
@@ -2971,7 +2960,7 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="3"/>
+      <c r="H201" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="15.75">
       <c r="A202" s="1"/>
@@ -2981,7 +2970,7 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="3"/>
+      <c r="H202" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="15.75">
       <c r="A203" s="1"/>
@@ -2991,7 +2980,7 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="3"/>
+      <c r="H203" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="15.75">
       <c r="A204" s="1"/>
@@ -3001,7 +2990,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="H204" s="3"/>
+      <c r="H204" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="15.75">
       <c r="A205" s="1"/>
@@ -3011,7 +3000,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="H205" s="3"/>
+      <c r="H205" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="15.75">
       <c r="A206" s="1"/>
@@ -3021,7 +3010,7 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="3"/>
+      <c r="H206" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="15.75">
       <c r="A207" s="1"/>
@@ -3031,7 +3020,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="H207" s="3"/>
+      <c r="H207" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="15.75">
       <c r="A208" s="1"/>
@@ -3041,7 +3030,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="3"/>
+      <c r="H208" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="15.75">
       <c r="A209" s="1"/>
@@ -3051,7 +3040,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="H209" s="3"/>
+      <c r="H209" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="15.75">
       <c r="A210" s="1"/>
@@ -3061,7 +3050,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="3"/>
+      <c r="H210" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="15.75">
       <c r="A211" s="1"/>
@@ -3071,7 +3060,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="H211" s="3"/>
+      <c r="H211" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="15.75">
       <c r="A212" s="1"/>
@@ -3081,7 +3070,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="3"/>
+      <c r="H212" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="15.75">
       <c r="A213" s="1"/>
@@ -3091,7 +3080,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="H213" s="3"/>
+      <c r="H213" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="15.75">
       <c r="A214" s="1"/>
@@ -3101,7 +3090,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="H214" s="3"/>
+      <c r="H214" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="15.75">
       <c r="A215" s="1"/>
@@ -3111,7 +3100,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="H215" s="3"/>
+      <c r="H215" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="15.75">
       <c r="A216" s="1"/>
@@ -3121,7 +3110,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="3"/>
+      <c r="H216" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="15.75">
       <c r="A217" s="1"/>
@@ -3131,7 +3120,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="3"/>
+      <c r="H217" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="15.75">
       <c r="A218" s="1"/>
@@ -3141,7 +3130,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="3"/>
+      <c r="H218" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="15.75">
       <c r="A219" s="1"/>
@@ -3151,7 +3140,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="H219" s="3"/>
+      <c r="H219" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="15.75">
       <c r="A220" s="1"/>
@@ -3161,7 +3150,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="3"/>
+      <c r="H220" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="15.75">
       <c r="A221" s="1"/>
@@ -3171,7 +3160,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="H221" s="3"/>
+      <c r="H221" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="15.75">
       <c r="A222" s="1"/>
@@ -3181,7 +3170,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="H222" s="3"/>
+      <c r="H222" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="15.75">
       <c r="A223" s="1"/>
@@ -3191,7 +3180,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="H223" s="3"/>
+      <c r="H223" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="15.75">
       <c r="A224" s="1"/>
@@ -3201,7 +3190,7 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="H224" s="3"/>
+      <c r="H224" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="15.75">
       <c r="A225" s="1"/>
@@ -3211,7 +3200,7 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="H225" s="3"/>
+      <c r="H225" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="15.75">
       <c r="A226" s="1"/>
@@ -3221,7 +3210,7 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="H226" s="3"/>
+      <c r="H226" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="15.75">
       <c r="A227" s="1"/>
@@ -3231,7 +3220,7 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="3"/>
+      <c r="H227" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="15.75">
       <c r="A228" s="1"/>
@@ -3241,7 +3230,7 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="3"/>
+      <c r="H228" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="15.75">
       <c r="A229" s="1"/>
@@ -3251,7 +3240,7 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="3"/>
+      <c r="H229" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="15.75">
       <c r="A230" s="1"/>
@@ -3261,7 +3250,7 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="H230" s="3"/>
+      <c r="H230" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="15.75">
       <c r="A231" s="1"/>
@@ -3271,7 +3260,7 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="H231" s="3"/>
+      <c r="H231" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="15.75">
       <c r="A232" s="1"/>
@@ -3281,7 +3270,7 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="3"/>
+      <c r="H232" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="15.75">
       <c r="A233" s="1"/>
@@ -3291,7 +3280,7 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="3"/>
+      <c r="H233" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="15.75">
       <c r="A234" s="1"/>
@@ -3301,7 +3290,7 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="3"/>
+      <c r="H234" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="15.75">
       <c r="A235" s="1"/>
@@ -3311,7 +3300,7 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="3"/>
+      <c r="H235" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="15.75">
       <c r="A236" s="1"/>
@@ -3321,7 +3310,7 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="3"/>
+      <c r="H236" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="15.75">
       <c r="A237" s="1"/>
@@ -3331,7 +3320,7 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="3"/>
+      <c r="H237" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="15.75">
       <c r="A238" s="1"/>
@@ -3341,7 +3330,7 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="3"/>
+      <c r="H238" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="15.75">
       <c r="A239" s="1"/>
@@ -3351,7 +3340,7 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="3"/>
+      <c r="H239" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="15.75">
       <c r="A240" s="1"/>
@@ -3361,7 +3350,7 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="H240" s="3"/>
+      <c r="H240" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="15.75">
       <c r="A241" s="1"/>
@@ -3371,7 +3360,7 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="3"/>
+      <c r="H241" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="15.75">
       <c r="A242" s="1"/>
@@ -3381,7 +3370,7 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
-      <c r="H242" s="3"/>
+      <c r="H242" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="15.75">
       <c r="A243" s="1"/>
@@ -3391,7 +3380,7 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
-      <c r="H243" s="3"/>
+      <c r="H243" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="15.75">
       <c r="A244" s="1"/>
@@ -3401,7 +3390,7 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
-      <c r="H244" s="3"/>
+      <c r="H244" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="15.75">
       <c r="A245" s="1"/>
@@ -3411,7 +3400,7 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="3"/>
+      <c r="H245" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="15.75">
       <c r="A246" s="1"/>
@@ -3421,7 +3410,7 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
-      <c r="H246" s="3"/>
+      <c r="H246" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="15.75">
       <c r="A247" s="1"/>
@@ -3431,7 +3420,7 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
-      <c r="H247" s="3"/>
+      <c r="H247" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="15.75">
       <c r="A248" s="1"/>
@@ -3441,7 +3430,7 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
-      <c r="H248" s="3"/>
+      <c r="H248" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="15.75">
       <c r="A249" s="1"/>
@@ -3451,7 +3440,7 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
-      <c r="H249" s="3"/>
+      <c r="H249" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="15.75">
       <c r="A250" s="1"/>
@@ -3461,7 +3450,7 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
-      <c r="H250" s="3"/>
+      <c r="H250" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="15.75">
       <c r="A251" s="1"/>
@@ -3471,7 +3460,7 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
-      <c r="H251" s="3"/>
+      <c r="H251" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="15.75">
       <c r="A252" s="1"/>
@@ -3481,7 +3470,7 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
-      <c r="H252" s="3"/>
+      <c r="H252" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="15.75">
       <c r="A253" s="1"/>
@@ -3491,7 +3480,7 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
-      <c r="H253" s="3"/>
+      <c r="H253" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="15.75">
       <c r="A254" s="1"/>
@@ -3501,7 +3490,7 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
-      <c r="H254" s="3"/>
+      <c r="H254" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="15.75">
       <c r="A255" s="1"/>
@@ -3511,7 +3500,7 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
-      <c r="H255" s="3"/>
+      <c r="H255" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="15.75">
       <c r="A256" s="1"/>
@@ -3521,7 +3510,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
-      <c r="H256" s="3"/>
+      <c r="H256" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="15.75">
       <c r="A257" s="1"/>
@@ -3531,7 +3520,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
-      <c r="H257" s="3"/>
+      <c r="H257" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="15.75">
       <c r="A258" s="1"/>
@@ -3541,7 +3530,7 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
-      <c r="H258" s="3"/>
+      <c r="H258" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="15.75">
       <c r="A259" s="1"/>
@@ -3551,7 +3540,7 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
-      <c r="H259" s="3"/>
+      <c r="H259" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="15.75">
       <c r="A260" s="1"/>
@@ -3561,7 +3550,7 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
-      <c r="H260" s="3"/>
+      <c r="H260" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="15.75">
       <c r="A261" s="1"/>
@@ -3571,7 +3560,7 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
-      <c r="H261" s="3"/>
+      <c r="H261" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="15.75">
       <c r="A262" s="1"/>
@@ -3581,7 +3570,7 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
-      <c r="H262" s="3"/>
+      <c r="H262" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="15.75">
       <c r="A263" s="1"/>
@@ -3591,7 +3580,7 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
-      <c r="H263" s="3"/>
+      <c r="H263" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="15.75">
       <c r="A264" s="1"/>
@@ -3601,7 +3590,7 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
-      <c r="H264" s="3"/>
+      <c r="H264" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="15.75">
       <c r="A265" s="1"/>
@@ -3611,7 +3600,7 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
-      <c r="H265" s="3"/>
+      <c r="H265" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="15.75">
       <c r="A266" s="1"/>
@@ -3621,7 +3610,7 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
-      <c r="H266" s="3"/>
+      <c r="H266" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="15.75">
       <c r="A267" s="1"/>
@@ -3631,7 +3620,7 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
-      <c r="H267" s="3"/>
+      <c r="H267" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="15.75">
       <c r="A268" s="1"/>
@@ -3641,7 +3630,7 @@
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
-      <c r="H268" s="3"/>
+      <c r="H268" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="15.75">
       <c r="A269" s="1"/>
@@ -3651,7 +3640,7 @@
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
-      <c r="H269" s="3"/>
+      <c r="H269" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="15.75">
       <c r="A270" s="1"/>
@@ -3661,7 +3650,7 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
-      <c r="H270" s="3"/>
+      <c r="H270" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="15.75">
       <c r="A271" s="1"/>
@@ -3671,7 +3660,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
-      <c r="H271" s="3"/>
+      <c r="H271" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="15.75">
       <c r="A272" s="1"/>
@@ -3681,7 +3670,7 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
-      <c r="H272" s="3"/>
+      <c r="H272" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="15.75">
       <c r="A273" s="1"/>
@@ -3691,7 +3680,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
-      <c r="H273" s="3"/>
+      <c r="H273" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="15.75">
       <c r="A274" s="1"/>
@@ -3701,7 +3690,7 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
-      <c r="H274" s="3"/>
+      <c r="H274" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="15.75">
       <c r="A275" s="1"/>
@@ -3711,7 +3700,7 @@
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
-      <c r="H275" s="3"/>
+      <c r="H275" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="15.75">
       <c r="A276" s="1"/>
@@ -3721,7 +3710,7 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
-      <c r="H276" s="3"/>
+      <c r="H276" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="15.75">
       <c r="A277" s="1"/>
@@ -3731,7 +3720,7 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
-      <c r="H277" s="3"/>
+      <c r="H277" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="15.75">
       <c r="A278" s="1"/>
@@ -3741,7 +3730,7 @@
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
-      <c r="H278" s="3"/>
+      <c r="H278" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="15.75">
       <c r="A279" s="1"/>
@@ -3751,7 +3740,7 @@
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
-      <c r="H279" s="3"/>
+      <c r="H279" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="15.75">
       <c r="A280" s="1"/>
@@ -3761,7 +3750,7 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
-      <c r="H280" s="3"/>
+      <c r="H280" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="15.75">
       <c r="A281" s="1"/>
@@ -3771,7 +3760,7 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
-      <c r="H281" s="3"/>
+      <c r="H281" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="15.75">
       <c r="A282" s="1"/>
@@ -3781,7 +3770,7 @@
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
-      <c r="H282" s="3"/>
+      <c r="H282" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="15.75">
       <c r="A283" s="1"/>
@@ -3791,7 +3780,7 @@
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
-      <c r="H283" s="3"/>
+      <c r="H283" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="15.75">
       <c r="A284" s="1"/>
@@ -3801,7 +3790,7 @@
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
-      <c r="H284" s="3"/>
+      <c r="H284" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="15.75">
       <c r="A285" s="1"/>
@@ -3811,7 +3800,7 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
-      <c r="H285" s="3"/>
+      <c r="H285" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="15.75">
       <c r="A286" s="1"/>
@@ -3821,7 +3810,7 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
-      <c r="H286" s="3"/>
+      <c r="H286" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="15.75">
       <c r="A287" s="1"/>
@@ -3831,7 +3820,7 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
-      <c r="H287" s="3"/>
+      <c r="H287" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="15.75">
       <c r="A288" s="1"/>
@@ -3841,7 +3830,7 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
-      <c r="H288" s="3"/>
+      <c r="H288" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="15.75">
       <c r="A289" s="1"/>
@@ -3851,7 +3840,7 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
-      <c r="H289" s="3"/>
+      <c r="H289" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="15.75">
       <c r="A290" s="1"/>
@@ -3861,7 +3850,7 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
-      <c r="H290" s="3"/>
+      <c r="H290" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="15.75">
       <c r="A291" s="1"/>
@@ -3871,7 +3860,7 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
-      <c r="H291" s="3"/>
+      <c r="H291" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="15.75">
       <c r="A292" s="1"/>
@@ -3881,7 +3870,7 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
-      <c r="H292" s="3"/>
+      <c r="H292" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="15.75">
       <c r="A293" s="1"/>
@@ -3891,7 +3880,7 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
-      <c r="H293" s="3"/>
+      <c r="H293" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="15.75">
       <c r="A294" s="1"/>
@@ -3901,7 +3890,7 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
-      <c r="H294" s="3"/>
+      <c r="H294" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="15.75">
       <c r="A295" s="1"/>
@@ -3911,7 +3900,7 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
-      <c r="H295" s="3"/>
+      <c r="H295" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="15.75">
       <c r="A296" s="1"/>
@@ -3921,7 +3910,7 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
-      <c r="H296" s="3"/>
+      <c r="H296" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="15.75">
       <c r="A297" s="1"/>
@@ -3931,7 +3920,7 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
-      <c r="H297" s="3"/>
+      <c r="H297" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="15.75">
       <c r="A298" s="1"/>
@@ -3941,7 +3930,7 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
-      <c r="H298" s="3"/>
+      <c r="H298" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="15.75">
       <c r="A299" s="1"/>
@@ -3951,7 +3940,7 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
-      <c r="H299" s="3"/>
+      <c r="H299" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="15.75">
       <c r="A300" s="1"/>
@@ -3961,7 +3950,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
-      <c r="H300" s="3"/>
+      <c r="H300" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="15.75">
       <c r="A301" s="1"/>
@@ -3971,7 +3960,7 @@
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
-      <c r="H301" s="3"/>
+      <c r="H301" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="15.75">
       <c r="A302" s="1"/>
@@ -3981,7 +3970,7 @@
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
-      <c r="H302" s="3"/>
+      <c r="H302" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="15.75">
       <c r="A303" s="1"/>
@@ -3991,7 +3980,7 @@
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
-      <c r="H303" s="3"/>
+      <c r="H303" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="15.75">
       <c r="A304" s="1"/>
@@ -4001,7 +3990,7 @@
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
-      <c r="H304" s="3"/>
+      <c r="H304" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="15.75">
       <c r="A305" s="1"/>
@@ -4011,7 +4000,7 @@
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
-      <c r="H305" s="3"/>
+      <c r="H305" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="15.75">
       <c r="A306" s="1"/>
@@ -4021,7 +4010,7 @@
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
-      <c r="H306" s="3"/>
+      <c r="H306" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="15.75">
       <c r="A307" s="1"/>
@@ -4031,7 +4020,7 @@
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
-      <c r="H307" s="3"/>
+      <c r="H307" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="15.75">
       <c r="A308" s="1"/>
@@ -4041,7 +4030,7 @@
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
-      <c r="H308" s="3"/>
+      <c r="H308" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="15.75">
       <c r="A309" s="1"/>
@@ -4051,7 +4040,7 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
-      <c r="H309" s="3"/>
+      <c r="H309" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="15.75">
       <c r="A310" s="1"/>
@@ -4061,7 +4050,7 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
-      <c r="H310" s="3"/>
+      <c r="H310" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="15.75">
       <c r="A311" s="1"/>
@@ -4071,7 +4060,7 @@
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
-      <c r="H311" s="3"/>
+      <c r="H311" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="15.75">
       <c r="A312" s="1"/>
@@ -4081,7 +4070,7 @@
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
-      <c r="H312" s="3"/>
+      <c r="H312" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="15.75">
       <c r="A313" s="1"/>
@@ -4091,7 +4080,7 @@
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
-      <c r="H313" s="3"/>
+      <c r="H313" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="15.75">
       <c r="A314" s="1"/>
@@ -4101,7 +4090,7 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
-      <c r="H314" s="3"/>
+      <c r="H314" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="15.75">
       <c r="A315" s="1"/>
@@ -4111,7 +4100,7 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
-      <c r="H315" s="3"/>
+      <c r="H315" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="15.75">
       <c r="A316" s="1"/>
@@ -4121,7 +4110,7 @@
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
-      <c r="H316" s="3"/>
+      <c r="H316" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="15.75">
       <c r="A317" s="1"/>
@@ -4131,7 +4120,7 @@
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
-      <c r="H317" s="3"/>
+      <c r="H317" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="15.75">
       <c r="A318" s="1"/>
@@ -4141,7 +4130,7 @@
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
-      <c r="H318" s="3"/>
+      <c r="H318" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="15.75">
       <c r="A319" s="1"/>
@@ -4151,7 +4140,7 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
-      <c r="H319" s="3"/>
+      <c r="H319" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="15.75">
       <c r="A320" s="1"/>
@@ -4161,7 +4150,7 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
-      <c r="H320" s="3"/>
+      <c r="H320" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="15.75">
       <c r="A321" s="1"/>
@@ -4171,7 +4160,7 @@
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
-      <c r="H321" s="3"/>
+      <c r="H321" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="15.75">
       <c r="A322" s="1"/>
@@ -4181,7 +4170,7 @@
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
-      <c r="H322" s="3"/>
+      <c r="H322" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="15.75">
       <c r="A323" s="1"/>
@@ -4191,7 +4180,7 @@
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
-      <c r="H323" s="3"/>
+      <c r="H323" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="15.75">
       <c r="A324" s="1"/>
@@ -4201,7 +4190,7 @@
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
-      <c r="H324" s="3"/>
+      <c r="H324" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="15.75">
       <c r="A325" s="1"/>
@@ -4211,7 +4200,7 @@
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
-      <c r="H325" s="3"/>
+      <c r="H325" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="15.75">
       <c r="A326" s="1"/>
@@ -4221,7 +4210,7 @@
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
-      <c r="H326" s="3"/>
+      <c r="H326" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="15.75">
       <c r="A327" s="1"/>
@@ -4231,7 +4220,7 @@
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
-      <c r="H327" s="3"/>
+      <c r="H327" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="15.75">
       <c r="A328" s="1"/>
@@ -4241,7 +4230,7 @@
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
-      <c r="H328" s="3"/>
+      <c r="H328" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="15.75">
       <c r="A329" s="1"/>
@@ -4251,7 +4240,7 @@
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
-      <c r="H329" s="3"/>
+      <c r="H329" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="15.75">
       <c r="A330" s="1"/>
@@ -4261,7 +4250,7 @@
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
-      <c r="H330" s="3"/>
+      <c r="H330" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="15.75">
       <c r="A331" s="1"/>
@@ -4271,7 +4260,7 @@
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
-      <c r="H331" s="3"/>
+      <c r="H331" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="15.75">
       <c r="A332" s="1"/>
@@ -4281,7 +4270,7 @@
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
-      <c r="H332" s="3"/>
+      <c r="H332" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="15.75">
       <c r="A333" s="1"/>
@@ -4291,7 +4280,7 @@
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
-      <c r="H333" s="3"/>
+      <c r="H333" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="15.75">
       <c r="A334" s="1"/>
@@ -4301,7 +4290,7 @@
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
-      <c r="H334" s="3"/>
+      <c r="H334" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="15.75">
       <c r="A335" s="1"/>
@@ -4311,7 +4300,7 @@
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
-      <c r="H335" s="3"/>
+      <c r="H335" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="15.75">
       <c r="A336" s="1"/>
@@ -4321,7 +4310,7 @@
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
-      <c r="H336" s="3"/>
+      <c r="H336" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="15.75">
       <c r="A337" s="1"/>
@@ -4331,7 +4320,7 @@
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
-      <c r="H337" s="3"/>
+      <c r="H337" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="15.75">
       <c r="A338" s="1"/>
@@ -4341,7 +4330,7 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
-      <c r="H338" s="3"/>
+      <c r="H338" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="15.75">
       <c r="A339" s="1"/>
@@ -4351,7 +4340,7 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
-      <c r="H339" s="3"/>
+      <c r="H339" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="15.75">
       <c r="A340" s="1"/>
@@ -4361,7 +4350,7 @@
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
-      <c r="H340" s="3"/>
+      <c r="H340" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="15.75">
       <c r="A341" s="1"/>
@@ -4371,7 +4360,7 @@
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
-      <c r="H341" s="3"/>
+      <c r="H341" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="15.75">
       <c r="A342" s="1"/>
@@ -4381,7 +4370,7 @@
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
-      <c r="H342" s="3"/>
+      <c r="H342" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="15.75">
       <c r="A343" s="1"/>
@@ -4391,7 +4380,7 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
-      <c r="H343" s="3"/>
+      <c r="H343" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="15.75">
       <c r="A344" s="1"/>
@@ -4401,7 +4390,7 @@
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
-      <c r="H344" s="3"/>
+      <c r="H344" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="15.75">
       <c r="A345" s="1"/>
@@ -4411,7 +4400,7 @@
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
-      <c r="H345" s="3"/>
+      <c r="H345" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="15.75">
       <c r="A346" s="1"/>
@@ -4421,7 +4410,7 @@
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
-      <c r="H346" s="3"/>
+      <c r="H346" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="15.75">
       <c r="A347" s="1"/>
@@ -4431,7 +4420,7 @@
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
-      <c r="H347" s="3"/>
+      <c r="H347" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="15.75">
       <c r="A348" s="1"/>
@@ -4441,7 +4430,7 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
-      <c r="H348" s="3"/>
+      <c r="H348" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="15.75">
       <c r="A349" s="1"/>
@@ -4451,7 +4440,7 @@
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
-      <c r="H349" s="3"/>
+      <c r="H349" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="15.75">
       <c r="A350" s="1"/>
@@ -4461,7 +4450,7 @@
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
-      <c r="H350" s="3"/>
+      <c r="H350" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="15.75">
       <c r="A351" s="1"/>
@@ -4471,7 +4460,7 @@
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
-      <c r="H351" s="3"/>
+      <c r="H351" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="15.75">
       <c r="A352" s="1"/>
@@ -4481,7 +4470,7 @@
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
-      <c r="H352" s="3"/>
+      <c r="H352" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="15.75">
       <c r="A353" s="1"/>
@@ -4491,7 +4480,7 @@
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
-      <c r="H353" s="3"/>
+      <c r="H353" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="15.75">
       <c r="A354" s="1"/>
@@ -4501,7 +4490,7 @@
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
-      <c r="H354" s="3"/>
+      <c r="H354" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="15.75">
       <c r="A355" s="1"/>
@@ -4511,7 +4500,7 @@
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
-      <c r="H355" s="3"/>
+      <c r="H355" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="15.75">
       <c r="A356" s="1"/>
@@ -4521,7 +4510,7 @@
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
-      <c r="H356" s="3"/>
+      <c r="H356" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="15.75">
       <c r="A357" s="1"/>
@@ -4531,7 +4520,7 @@
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
-      <c r="H357" s="3"/>
+      <c r="H357" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="15.75">
       <c r="A358" s="1"/>
@@ -4541,7 +4530,7 @@
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
-      <c r="H358" s="3"/>
+      <c r="H358" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="15.75">
       <c r="A359" s="1"/>
@@ -4551,7 +4540,7 @@
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
-      <c r="H359" s="3"/>
+      <c r="H359" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="15.75">
       <c r="A360" s="1"/>
@@ -4561,7 +4550,7 @@
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
-      <c r="H360" s="3"/>
+      <c r="H360" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="15.75">
       <c r="A361" s="1"/>
@@ -4571,7 +4560,7 @@
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
-      <c r="H361" s="3"/>
+      <c r="H361" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="15.75">
       <c r="A362" s="1"/>
@@ -4581,7 +4570,7 @@
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
-      <c r="H362" s="3"/>
+      <c r="H362" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="15.75">
       <c r="A363" s="1"/>
@@ -4591,7 +4580,7 @@
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
-      <c r="H363" s="3"/>
+      <c r="H363" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="15.75">
       <c r="A364" s="1"/>
@@ -4601,7 +4590,7 @@
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
-      <c r="H364" s="3"/>
+      <c r="H364" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="15.75">
       <c r="A365" s="1"/>
@@ -4611,7 +4600,7 @@
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
-      <c r="H365" s="3"/>
+      <c r="H365" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="15.75">
       <c r="A366" s="1"/>
@@ -4621,7 +4610,7 @@
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
-      <c r="H366" s="3"/>
+      <c r="H366" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="15.75">
       <c r="A367" s="1"/>
@@ -4631,7 +4620,7 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
-      <c r="H367" s="3"/>
+      <c r="H367" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="15.75">
       <c r="A368" s="1"/>
@@ -4641,7 +4630,7 @@
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
-      <c r="H368" s="3"/>
+      <c r="H368" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="15.75">
       <c r="A369" s="1"/>
@@ -4651,7 +4640,7 @@
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
-      <c r="H369" s="3"/>
+      <c r="H369" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="15.75">
       <c r="A370" s="1"/>
@@ -4661,7 +4650,7 @@
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
-      <c r="H370" s="3"/>
+      <c r="H370" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="15.75">
       <c r="A371" s="1"/>
@@ -4671,7 +4660,7 @@
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
-      <c r="H371" s="3"/>
+      <c r="H371" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="15.75">
       <c r="A372" s="1"/>
@@ -4681,7 +4670,7 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
-      <c r="H372" s="3"/>
+      <c r="H372" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="15.75">
       <c r="A373" s="1"/>
@@ -4691,7 +4680,7 @@
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
-      <c r="H373" s="3"/>
+      <c r="H373" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="15.75">
       <c r="A374" s="1"/>
@@ -4701,7 +4690,7 @@
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
-      <c r="H374" s="3"/>
+      <c r="H374" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="15.75">
       <c r="A375" s="1"/>
@@ -4711,7 +4700,7 @@
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
-      <c r="H375" s="3"/>
+      <c r="H375" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="15.75">
       <c r="A376" s="1"/>
@@ -4721,7 +4710,7 @@
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
-      <c r="H376" s="3"/>
+      <c r="H376" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="15.75">
       <c r="A377" s="1"/>
@@ -4731,7 +4720,7 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
-      <c r="H377" s="3"/>
+      <c r="H377" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="15.75">
       <c r="A378" s="1"/>
@@ -4741,7 +4730,7 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
-      <c r="H378" s="3"/>
+      <c r="H378" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="15.75">
       <c r="A379" s="1"/>
@@ -4751,7 +4740,7 @@
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
-      <c r="H379" s="3"/>
+      <c r="H379" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="15.75">
       <c r="A380" s="1"/>
@@ -4761,7 +4750,7 @@
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
-      <c r="H380" s="3"/>
+      <c r="H380" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="15.75">
       <c r="A381" s="1"/>
@@ -4771,7 +4760,7 @@
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
-      <c r="H381" s="3"/>
+      <c r="H381" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="15.75">
       <c r="A382" s="1"/>
@@ -4781,7 +4770,7 @@
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
-      <c r="H382" s="3"/>
+      <c r="H382" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="15.75">
       <c r="A383" s="1"/>
@@ -4791,7 +4780,7 @@
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
-      <c r="H383" s="3"/>
+      <c r="H383" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="15.75">
       <c r="A384" s="1"/>
@@ -4801,7 +4790,7 @@
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
-      <c r="H384" s="3"/>
+      <c r="H384" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="15.75">
       <c r="A385" s="1"/>
@@ -4811,7 +4800,7 @@
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
-      <c r="H385" s="3"/>
+      <c r="H385" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="15.75">
       <c r="A386" s="1"/>
@@ -4821,7 +4810,7 @@
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
-      <c r="H386" s="3"/>
+      <c r="H386" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="15.75">
       <c r="A387" s="1"/>
@@ -4831,7 +4820,7 @@
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
-      <c r="H387" s="3"/>
+      <c r="H387" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="15.75">
       <c r="A388" s="1"/>
@@ -4841,7 +4830,7 @@
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
-      <c r="H388" s="3"/>
+      <c r="H388" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="15.75">
       <c r="A389" s="1"/>
@@ -4851,7 +4840,7 @@
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
-      <c r="H389" s="3"/>
+      <c r="H389" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="15.75">
       <c r="A390" s="1"/>
@@ -4861,7 +4850,7 @@
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
-      <c r="H390" s="3"/>
+      <c r="H390" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="15.75">
       <c r="A391" s="1"/>
@@ -4871,7 +4860,7 @@
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
-      <c r="H391" s="3"/>
+      <c r="H391" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="15.75">
       <c r="A392" s="1"/>
@@ -4881,7 +4870,7 @@
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
-      <c r="H392" s="3"/>
+      <c r="H392" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="15.75">
       <c r="A393" s="1"/>
@@ -4891,7 +4880,7 @@
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
-      <c r="H393" s="3"/>
+      <c r="H393" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="15.75">
       <c r="A394" s="1"/>
@@ -4901,7 +4890,7 @@
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
-      <c r="H394" s="3"/>
+      <c r="H394" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="15.75">
       <c r="A395" s="1"/>
@@ -4911,7 +4900,7 @@
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
-      <c r="H395" s="3"/>
+      <c r="H395" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="15.75">
       <c r="A396" s="1"/>
@@ -4921,7 +4910,7 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
-      <c r="H396" s="3"/>
+      <c r="H396" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="15.75">
       <c r="A397" s="1"/>
@@ -4931,7 +4920,7 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
-      <c r="H397" s="3"/>
+      <c r="H397" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="15.75">
       <c r="A398" s="1"/>
@@ -4941,7 +4930,7 @@
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
-      <c r="H398" s="3"/>
+      <c r="H398" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="15.75">
       <c r="A399" s="1"/>
@@ -4951,7 +4940,7 @@
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
-      <c r="H399" s="3"/>
+      <c r="H399" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="15.75">
       <c r="A400" s="1"/>
@@ -4961,7 +4950,7 @@
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
-      <c r="H400" s="3"/>
+      <c r="H400" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="15.75">
       <c r="A401" s="1"/>
@@ -4971,7 +4960,7 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
-      <c r="H401" s="3"/>
+      <c r="H401" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="15.75">
       <c r="A402" s="1"/>
@@ -4981,7 +4970,7 @@
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
-      <c r="H402" s="3"/>
+      <c r="H402" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="15.75">
       <c r="A403" s="1"/>
@@ -4991,7 +4980,7 @@
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
-      <c r="H403" s="3"/>
+      <c r="H403" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="15.75">
       <c r="A404" s="1"/>
@@ -5001,7 +4990,7 @@
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
-      <c r="H404" s="3"/>
+      <c r="H404" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="15.75">
       <c r="A405" s="1"/>
@@ -5011,7 +5000,7 @@
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
-      <c r="H405" s="3"/>
+      <c r="H405" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="15.75">
       <c r="A406" s="1"/>
@@ -5021,7 +5010,7 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
-      <c r="H406" s="3"/>
+      <c r="H406" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="15.75">
       <c r="A407" s="1"/>
@@ -5031,7 +5020,7 @@
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
-      <c r="H407" s="3"/>
+      <c r="H407" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="15.75">
       <c r="A408" s="1"/>
@@ -5041,7 +5030,7 @@
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
-      <c r="H408" s="3"/>
+      <c r="H408" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="15.75">
       <c r="A409" s="1"/>
@@ -5051,7 +5040,7 @@
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
-      <c r="H409" s="3"/>
+      <c r="H409" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="15.75">
       <c r="A410" s="1"/>
@@ -5061,7 +5050,7 @@
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
-      <c r="H410" s="3"/>
+      <c r="H410" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="15.75">
       <c r="A411" s="1"/>
@@ -5071,7 +5060,7 @@
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
-      <c r="H411" s="3"/>
+      <c r="H411" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="15.75">
       <c r="A412" s="1"/>
@@ -5081,7 +5070,7 @@
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
-      <c r="H412" s="3"/>
+      <c r="H412" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="15.75">
       <c r="A413" s="1"/>
@@ -5091,7 +5080,7 @@
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
-      <c r="H413" s="3"/>
+      <c r="H413" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="15.75">
       <c r="A414" s="1"/>
@@ -5101,7 +5090,7 @@
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
-      <c r="H414" s="3"/>
+      <c r="H414" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="15.75">
       <c r="A415" s="1"/>
@@ -5111,7 +5100,7 @@
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
-      <c r="H415" s="3"/>
+      <c r="H415" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="15.75">
       <c r="A416" s="1"/>
@@ -5121,7 +5110,7 @@
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
-      <c r="H416" s="3"/>
+      <c r="H416" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="15.75">
       <c r="A417" s="1"/>
@@ -5131,7 +5120,7 @@
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
-      <c r="H417" s="3"/>
+      <c r="H417" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="15.75">
       <c r="A418" s="1"/>
@@ -5141,7 +5130,7 @@
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
-      <c r="H418" s="3"/>
+      <c r="H418" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="15.75">
       <c r="A419" s="1"/>
@@ -5151,7 +5140,7 @@
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
-      <c r="H419" s="3"/>
+      <c r="H419" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="15.75">
       <c r="A420" s="1"/>
@@ -5161,7 +5150,7 @@
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
-      <c r="H420" s="3"/>
+      <c r="H420" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="15.75">
       <c r="A421" s="1"/>
@@ -5171,7 +5160,7 @@
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
-      <c r="H421" s="3"/>
+      <c r="H421" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="15.75">
       <c r="A422" s="1"/>
@@ -5181,7 +5170,7 @@
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
-      <c r="H422" s="3"/>
+      <c r="H422" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="15.75">
       <c r="A423" s="1"/>
@@ -5191,7 +5180,7 @@
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
-      <c r="H423" s="3"/>
+      <c r="H423" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="15.75">
       <c r="A424" s="1"/>
@@ -5201,7 +5190,7 @@
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
-      <c r="H424" s="3"/>
+      <c r="H424" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="15.75">
       <c r="A425" s="1"/>
@@ -5211,7 +5200,7 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
-      <c r="H425" s="3"/>
+      <c r="H425" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="15.75">
       <c r="A426" s="1"/>
@@ -5221,7 +5210,7 @@
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
-      <c r="H426" s="3"/>
+      <c r="H426" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="15.75">
       <c r="A427" s="1"/>
@@ -5231,7 +5220,7 @@
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
-      <c r="H427" s="3"/>
+      <c r="H427" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="15.75">
       <c r="A428" s="1"/>
@@ -5241,7 +5230,7 @@
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
-      <c r="H428" s="3"/>
+      <c r="H428" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="15.75">
       <c r="A429" s="1"/>
@@ -5251,7 +5240,7 @@
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
-      <c r="H429" s="3"/>
+      <c r="H429" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="15.75">
       <c r="A430" s="1"/>
@@ -5261,7 +5250,7 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
-      <c r="H430" s="3"/>
+      <c r="H430" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="15.75">
       <c r="A431" s="1"/>
@@ -5271,7 +5260,7 @@
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
-      <c r="H431" s="3"/>
+      <c r="H431" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="15.75">
       <c r="A432" s="1"/>
@@ -5281,7 +5270,7 @@
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
-      <c r="H432" s="3"/>
+      <c r="H432" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="15.75">
       <c r="A433" s="1"/>
@@ -5291,7 +5280,7 @@
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
-      <c r="H433" s="3"/>
+      <c r="H433" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="15.75">
       <c r="A434" s="1"/>
@@ -5301,7 +5290,7 @@
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
-      <c r="H434" s="3"/>
+      <c r="H434" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="15.75">
       <c r="A435" s="1"/>
@@ -5311,7 +5300,7 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
-      <c r="H435" s="3"/>
+      <c r="H435" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="15.75">
       <c r="A436" s="1"/>
@@ -5321,7 +5310,7 @@
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
-      <c r="H436" s="3"/>
+      <c r="H436" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="15.75">
       <c r="A437" s="1"/>
@@ -5331,7 +5320,7 @@
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
-      <c r="H437" s="3"/>
+      <c r="H437" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="15.75">
       <c r="A438" s="1"/>
@@ -5341,7 +5330,7 @@
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
-      <c r="H438" s="3"/>
+      <c r="H438" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="15.75">
       <c r="A439" s="1"/>
@@ -5351,7 +5340,7 @@
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
-      <c r="H439" s="3"/>
+      <c r="H439" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="15.75">
       <c r="A440" s="1"/>
@@ -5361,7 +5350,7 @@
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
-      <c r="H440" s="3"/>
+      <c r="H440" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="15.75">
       <c r="A441" s="1"/>
@@ -5371,7 +5360,7 @@
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
-      <c r="H441" s="3"/>
+      <c r="H441" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="15.75">
       <c r="A442" s="1"/>
@@ -5381,7 +5370,7 @@
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
-      <c r="H442" s="3"/>
+      <c r="H442" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="15.75">
       <c r="A443" s="1"/>
@@ -5391,7 +5380,7 @@
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
-      <c r="H443" s="3"/>
+      <c r="H443" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="15.75">
       <c r="A444" s="1"/>
@@ -5401,7 +5390,7 @@
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
-      <c r="H444" s="3"/>
+      <c r="H444" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="15.75">
       <c r="A445" s="1"/>
@@ -5411,7 +5400,7 @@
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
-      <c r="H445" s="3"/>
+      <c r="H445" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="15.75">
       <c r="A446" s="1"/>
@@ -5421,7 +5410,7 @@
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
-      <c r="H446" s="3"/>
+      <c r="H446" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="15.75">
       <c r="A447" s="1"/>
@@ -5431,7 +5420,7 @@
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
-      <c r="H447" s="3"/>
+      <c r="H447" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="15.75">
       <c r="A448" s="1"/>
@@ -5441,7 +5430,7 @@
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
-      <c r="H448" s="3"/>
+      <c r="H448" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="15.75">
       <c r="A449" s="1"/>
@@ -5451,7 +5440,7 @@
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
-      <c r="H449" s="3"/>
+      <c r="H449" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="15.75">
       <c r="A450" s="1"/>
@@ -5461,7 +5450,7 @@
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
-      <c r="H450" s="3"/>
+      <c r="H450" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="15.75">
       <c r="A451" s="1"/>
@@ -5471,7 +5460,7 @@
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
-      <c r="H451" s="3"/>
+      <c r="H451" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="15.75">
       <c r="A452" s="1"/>
@@ -5481,7 +5470,7 @@
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
-      <c r="H452" s="3"/>
+      <c r="H452" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="15.75">
       <c r="A453" s="1"/>
@@ -5491,7 +5480,7 @@
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
-      <c r="H453" s="3"/>
+      <c r="H453" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="15.75">
       <c r="A454" s="1"/>
@@ -5501,7 +5490,7 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
-      <c r="H454" s="3"/>
+      <c r="H454" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="15.75">
       <c r="A455" s="1"/>
@@ -5511,7 +5500,7 @@
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
-      <c r="H455" s="3"/>
+      <c r="H455" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="15.75">
       <c r="A456" s="1"/>
@@ -5521,7 +5510,7 @@
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
-      <c r="H456" s="3"/>
+      <c r="H456" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="15.75">
       <c r="A457" s="1"/>
@@ -5531,7 +5520,7 @@
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
-      <c r="H457" s="3"/>
+      <c r="H457" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="15.75">
       <c r="A458" s="1"/>
@@ -5541,7 +5530,7 @@
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
-      <c r="H458" s="3"/>
+      <c r="H458" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="15.75">
       <c r="A459" s="1"/>
@@ -5551,7 +5540,7 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
-      <c r="H459" s="3"/>
+      <c r="H459" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="15.75">
       <c r="A460" s="1"/>
@@ -5561,7 +5550,7 @@
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
-      <c r="H460" s="3"/>
+      <c r="H460" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="15.75">
       <c r="A461" s="1"/>
@@ -5571,7 +5560,7 @@
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
-      <c r="H461" s="3"/>
+      <c r="H461" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="15.75">
       <c r="A462" s="1"/>
@@ -5581,7 +5570,7 @@
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
-      <c r="H462" s="3"/>
+      <c r="H462" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="15.75">
       <c r="A463" s="1"/>
@@ -5591,7 +5580,7 @@
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
-      <c r="H463" s="3"/>
+      <c r="H463" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="15.75">
       <c r="A464" s="1"/>
@@ -5601,7 +5590,7 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
-      <c r="H464" s="3"/>
+      <c r="H464" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="15.75">
       <c r="A465" s="1"/>
@@ -5611,7 +5600,7 @@
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
-      <c r="H465" s="3"/>
+      <c r="H465" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="15.75">
       <c r="A466" s="1"/>
@@ -5621,7 +5610,7 @@
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
-      <c r="H466" s="3"/>
+      <c r="H466" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="15.75">
       <c r="A467" s="1"/>
@@ -5631,7 +5620,7 @@
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
-      <c r="H467" s="3"/>
+      <c r="H467" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="15.75">
       <c r="A468" s="1"/>
@@ -5641,7 +5630,7 @@
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
-      <c r="H468" s="3"/>
+      <c r="H468" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="15.75">
       <c r="A469" s="1"/>
@@ -5651,7 +5640,7 @@
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
-      <c r="H469" s="3"/>
+      <c r="H469" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="15.75">
       <c r="A470" s="1"/>
@@ -5661,7 +5650,7 @@
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
-      <c r="H470" s="3"/>
+      <c r="H470" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="15.75">
       <c r="A471" s="1"/>
@@ -5671,7 +5660,7 @@
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
-      <c r="H471" s="3"/>
+      <c r="H471" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="15.75">
       <c r="A472" s="1"/>
@@ -5681,7 +5670,7 @@
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
-      <c r="H472" s="3"/>
+      <c r="H472" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="15.75">
       <c r="A473" s="1"/>
@@ -5691,7 +5680,7 @@
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
-      <c r="H473" s="3"/>
+      <c r="H473" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="15.75">
       <c r="A474" s="1"/>
@@ -5701,7 +5690,7 @@
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
-      <c r="H474" s="3"/>
+      <c r="H474" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="15.75">
       <c r="A475" s="1"/>
@@ -5711,7 +5700,7 @@
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
-      <c r="H475" s="3"/>
+      <c r="H475" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="15.75">
       <c r="A476" s="1"/>
@@ -5721,7 +5710,7 @@
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
-      <c r="H476" s="3"/>
+      <c r="H476" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="15.75">
       <c r="A477" s="1"/>
@@ -5731,7 +5720,7 @@
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
-      <c r="H477" s="3"/>
+      <c r="H477" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="15.75">
       <c r="A478" s="1"/>
@@ -5741,7 +5730,7 @@
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
-      <c r="H478" s="3"/>
+      <c r="H478" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="15.75">
       <c r="A479" s="1"/>
@@ -5751,7 +5740,7 @@
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
-      <c r="H479" s="3"/>
+      <c r="H479" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="15.75">
       <c r="A480" s="1"/>
@@ -5761,7 +5750,7 @@
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
-      <c r="H480" s="3"/>
+      <c r="H480" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="15.75">
       <c r="A481" s="1"/>
@@ -5771,7 +5760,7 @@
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
-      <c r="H481" s="3"/>
+      <c r="H481" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="15.75">
       <c r="A482" s="1"/>
@@ -5781,7 +5770,7 @@
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
-      <c r="H482" s="3"/>
+      <c r="H482" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="15.75">
       <c r="A483" s="1"/>
@@ -5791,7 +5780,7 @@
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
-      <c r="H483" s="3"/>
+      <c r="H483" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="15.75">
       <c r="A484" s="1"/>
@@ -5801,7 +5790,7 @@
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
-      <c r="H484" s="3"/>
+      <c r="H484" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="15.75">
       <c r="A485" s="1"/>
@@ -5811,7 +5800,7 @@
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
-      <c r="H485" s="3"/>
+      <c r="H485" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="15.75">
       <c r="A486" s="1"/>
@@ -5821,7 +5810,7 @@
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
-      <c r="H486" s="3"/>
+      <c r="H486" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="15.75">
       <c r="A487" s="1"/>
@@ -5831,7 +5820,7 @@
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
-      <c r="H487" s="3"/>
+      <c r="H487" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="15.75">
       <c r="A488" s="1"/>
@@ -5841,7 +5830,7 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
-      <c r="H488" s="3"/>
+      <c r="H488" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="15.75">
       <c r="A489" s="1"/>
@@ -5851,7 +5840,7 @@
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
-      <c r="H489" s="3"/>
+      <c r="H489" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="15.75">
       <c r="A490" s="1"/>
@@ -5861,7 +5850,7 @@
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
-      <c r="H490" s="3"/>
+      <c r="H490" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="15.75">
       <c r="A491" s="1"/>
@@ -5871,7 +5860,7 @@
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
-      <c r="H491" s="3"/>
+      <c r="H491" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="15.75">
       <c r="A492" s="1"/>
@@ -5881,7 +5870,7 @@
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
-      <c r="H492" s="3"/>
+      <c r="H492" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="15.75">
       <c r="A493" s="1"/>
@@ -5891,7 +5880,7 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
-      <c r="H493" s="3"/>
+      <c r="H493" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="15.75">
       <c r="A494" s="1"/>
@@ -5901,7 +5890,7 @@
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
-      <c r="H494" s="3"/>
+      <c r="H494" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="15.75">
       <c r="A495" s="1"/>
@@ -5911,7 +5900,7 @@
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
-      <c r="H495" s="3"/>
+      <c r="H495" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="15.75">
       <c r="A496" s="1"/>
@@ -5921,7 +5910,7 @@
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
-      <c r="H496" s="3"/>
+      <c r="H496" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="15.75">
       <c r="A497" s="1"/>
@@ -5931,7 +5920,7 @@
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
-      <c r="H497" s="3"/>
+      <c r="H497" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="15.75">
       <c r="A498" s="1"/>
@@ -5941,7 +5930,7 @@
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
-      <c r="H498" s="3"/>
+      <c r="H498" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="15.75">
       <c r="A499" s="1"/>
@@ -5951,7 +5940,7 @@
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
-      <c r="H499" s="3"/>
+      <c r="H499" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="15.75">
       <c r="A500" s="1"/>
@@ -5961,7 +5950,7 @@
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
-      <c r="H500" s="3"/>
+      <c r="H500" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="15.75">
       <c r="A501" s="1"/>
@@ -5971,7 +5960,7 @@
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
       <c r="G501" s="1"/>
-      <c r="H501" s="3"/>
+      <c r="H501" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="15.75">
       <c r="A502" s="1"/>
@@ -5981,7 +5970,7 @@
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
-      <c r="H502" s="3"/>
+      <c r="H502" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="15.75">
       <c r="A503" s="1"/>
@@ -5991,7 +5980,7 @@
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
-      <c r="H503" s="3"/>
+      <c r="H503" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="15.75">
       <c r="A504" s="1"/>
@@ -6001,7 +5990,7 @@
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
-      <c r="H504" s="3"/>
+      <c r="H504" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="15.75">
       <c r="A505" s="1"/>
@@ -6011,7 +6000,7 @@
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
-      <c r="H505" s="3"/>
+      <c r="H505" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="15.75">
       <c r="A506" s="1"/>
@@ -6021,7 +6010,7 @@
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
       <c r="G506" s="1"/>
-      <c r="H506" s="3"/>
+      <c r="H506" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="15.75">
       <c r="A507" s="1"/>
@@ -6031,7 +6020,7 @@
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
       <c r="G507" s="1"/>
-      <c r="H507" s="3"/>
+      <c r="H507" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="15.75">
       <c r="A508" s="1"/>
@@ -6041,7 +6030,7 @@
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
-      <c r="H508" s="3"/>
+      <c r="H508" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="15.75">
       <c r="A509" s="1"/>
@@ -6051,7 +6040,7 @@
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
-      <c r="H509" s="3"/>
+      <c r="H509" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="15.75">
       <c r="A510" s="1"/>
@@ -6061,7 +6050,7 @@
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
       <c r="G510" s="1"/>
-      <c r="H510" s="3"/>
+      <c r="H510" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="15.75">
       <c r="A511" s="1"/>
@@ -6071,7 +6060,7 @@
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
-      <c r="H511" s="3"/>
+      <c r="H511" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="15.75">
       <c r="A512" s="1"/>
@@ -6081,7 +6070,7 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
-      <c r="H512" s="3"/>
+      <c r="H512" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="15.75">
       <c r="A513" s="1"/>
@@ -6091,7 +6080,7 @@
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1"/>
-      <c r="H513" s="3"/>
+      <c r="H513" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="15.75">
       <c r="A514" s="1"/>
@@ -6101,7 +6090,7 @@
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
-      <c r="H514" s="3"/>
+      <c r="H514" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="15.75">
       <c r="A515" s="1"/>
@@ -6111,7 +6100,7 @@
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
-      <c r="H515" s="3"/>
+      <c r="H515" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="15.75">
       <c r="A516" s="1"/>
@@ -6121,7 +6110,7 @@
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
-      <c r="H516" s="3"/>
+      <c r="H516" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="15.75">
       <c r="A517" s="1"/>
@@ -6131,7 +6120,7 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
-      <c r="H517" s="3"/>
+      <c r="H517" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="15.75">
       <c r="A518" s="1"/>
@@ -6141,7 +6130,7 @@
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
-      <c r="H518" s="3"/>
+      <c r="H518" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="15.75">
       <c r="A519" s="1"/>
@@ -6151,7 +6140,7 @@
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
-      <c r="H519" s="3"/>
+      <c r="H519" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="15.75">
       <c r="A520" s="1"/>
@@ -6161,7 +6150,7 @@
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
       <c r="G520" s="1"/>
-      <c r="H520" s="3"/>
+      <c r="H520" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="15.75">
       <c r="A521" s="1"/>
@@ -6171,7 +6160,7 @@
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
       <c r="G521" s="1"/>
-      <c r="H521" s="3"/>
+      <c r="H521" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="15.75">
       <c r="A522" s="1"/>
@@ -6181,7 +6170,7 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
-      <c r="H522" s="3"/>
+      <c r="H522" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="15.75">
       <c r="A523" s="1"/>
@@ -6191,7 +6180,7 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
-      <c r="H523" s="3"/>
+      <c r="H523" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="15.75">
       <c r="A524" s="1"/>
@@ -6201,7 +6190,7 @@
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
-      <c r="H524" s="3"/>
+      <c r="H524" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="15.75">
       <c r="A525" s="1"/>
@@ -6211,7 +6200,7 @@
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
-      <c r="H525" s="3"/>
+      <c r="H525" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="15.75">
       <c r="A526" s="1"/>
@@ -6221,7 +6210,7 @@
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
       <c r="G526" s="1"/>
-      <c r="H526" s="3"/>
+      <c r="H526" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="15.75">
       <c r="A527" s="1"/>
@@ -6231,7 +6220,7 @@
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
-      <c r="H527" s="3"/>
+      <c r="H527" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="15.75">
       <c r="A528" s="1"/>
@@ -6241,7 +6230,7 @@
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
-      <c r="H528" s="3"/>
+      <c r="H528" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="15.75">
       <c r="A529" s="1"/>
@@ -6251,7 +6240,7 @@
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
       <c r="G529" s="1"/>
-      <c r="H529" s="3"/>
+      <c r="H529" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="15.75">
       <c r="A530" s="1"/>
@@ -6261,7 +6250,7 @@
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
-      <c r="H530" s="3"/>
+      <c r="H530" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="15.75">
       <c r="A531" s="1"/>
@@ -6271,7 +6260,7 @@
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
-      <c r="H531" s="3"/>
+      <c r="H531" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="15.75">
       <c r="A532" s="1"/>
@@ -6281,7 +6270,7 @@
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
-      <c r="H532" s="3"/>
+      <c r="H532" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="15.75">
       <c r="A533" s="1"/>
@@ -6291,7 +6280,7 @@
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
-      <c r="H533" s="3"/>
+      <c r="H533" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="15.75">
       <c r="A534" s="1"/>
@@ -6301,7 +6290,7 @@
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
-      <c r="H534" s="3"/>
+      <c r="H534" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="15.75">
       <c r="A535" s="1"/>
@@ -6311,7 +6300,7 @@
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
-      <c r="H535" s="3"/>
+      <c r="H535" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="15.75">
       <c r="A536" s="1"/>
@@ -6321,7 +6310,7 @@
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
-      <c r="H536" s="3"/>
+      <c r="H536" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="15.75">
       <c r="A537" s="1"/>
@@ -6331,7 +6320,7 @@
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
-      <c r="H537" s="3"/>
+      <c r="H537" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="15.75">
       <c r="A538" s="1"/>
@@ -6341,7 +6330,7 @@
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
-      <c r="H538" s="3"/>
+      <c r="H538" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="15.75">
       <c r="A539" s="1"/>
@@ -6351,7 +6340,7 @@
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
-      <c r="H539" s="3"/>
+      <c r="H539" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="15.75">
       <c r="A540" s="1"/>
@@ -6361,7 +6350,7 @@
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
-      <c r="H540" s="3"/>
+      <c r="H540" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="15.75">
       <c r="A541" s="1"/>
@@ -6371,7 +6360,7 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
-      <c r="H541" s="3"/>
+      <c r="H541" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="15.75">
       <c r="A542" s="1"/>
@@ -6381,7 +6370,7 @@
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
-      <c r="H542" s="3"/>
+      <c r="H542" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="15.75">
       <c r="A543" s="1"/>
@@ -6391,7 +6380,7 @@
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
-      <c r="H543" s="3"/>
+      <c r="H543" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="15.75">
       <c r="A544" s="1"/>
@@ -6401,7 +6390,7 @@
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
-      <c r="H544" s="3"/>
+      <c r="H544" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="15.75">
       <c r="A545" s="1"/>
@@ -6411,7 +6400,7 @@
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
       <c r="G545" s="1"/>
-      <c r="H545" s="3"/>
+      <c r="H545" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="15.75">
       <c r="A546" s="1"/>
@@ -6421,7 +6410,7 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1"/>
-      <c r="H546" s="3"/>
+      <c r="H546" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="15.75">
       <c r="A547" s="1"/>
@@ -6431,7 +6420,7 @@
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
-      <c r="H547" s="3"/>
+      <c r="H547" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="15.75">
       <c r="A548" s="1"/>
@@ -6441,7 +6430,7 @@
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
-      <c r="H548" s="3"/>
+      <c r="H548" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="15.75">
       <c r="A549" s="1"/>
@@ -6451,7 +6440,7 @@
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
-      <c r="H549" s="3"/>
+      <c r="H549" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="15.75">
       <c r="A550" s="1"/>
@@ -6461,7 +6450,7 @@
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
       <c r="G550" s="1"/>
-      <c r="H550" s="3"/>
+      <c r="H550" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="15.75">
       <c r="A551" s="1"/>
@@ -6471,7 +6460,7 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
-      <c r="H551" s="3"/>
+      <c r="H551" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="15.75">
       <c r="A552" s="1"/>
@@ -6481,7 +6470,7 @@
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1"/>
-      <c r="H552" s="3"/>
+      <c r="H552" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="15.75">
       <c r="A553" s="1"/>
@@ -6491,7 +6480,7 @@
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
-      <c r="H553" s="3"/>
+      <c r="H553" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="15.75">
       <c r="A554" s="1"/>
@@ -6501,7 +6490,7 @@
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
-      <c r="H554" s="3"/>
+      <c r="H554" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="15.75">
       <c r="A555" s="1"/>
@@ -6511,7 +6500,7 @@
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
-      <c r="H555" s="3"/>
+      <c r="H555" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="15.75">
       <c r="A556" s="1"/>
@@ -6521,7 +6510,7 @@
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
-      <c r="H556" s="3"/>
+      <c r="H556" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="15.75">
       <c r="A557" s="1"/>
@@ -6531,7 +6520,7 @@
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
       <c r="G557" s="1"/>
-      <c r="H557" s="3"/>
+      <c r="H557" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="15.75">
       <c r="A558" s="1"/>
@@ -6541,7 +6530,7 @@
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
       <c r="G558" s="1"/>
-      <c r="H558" s="3"/>
+      <c r="H558" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="15.75">
       <c r="A559" s="1"/>
@@ -6551,7 +6540,7 @@
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
       <c r="G559" s="1"/>
-      <c r="H559" s="3"/>
+      <c r="H559" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="15.75">
       <c r="A560" s="1"/>
@@ -6561,7 +6550,7 @@
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
       <c r="G560" s="1"/>
-      <c r="H560" s="3"/>
+      <c r="H560" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="15.75">
       <c r="A561" s="1"/>
@@ -6571,7 +6560,7 @@
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
       <c r="G561" s="1"/>
-      <c r="H561" s="3"/>
+      <c r="H561" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="15.75">
       <c r="A562" s="1"/>
@@ -6581,7 +6570,7 @@
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
       <c r="G562" s="1"/>
-      <c r="H562" s="3"/>
+      <c r="H562" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="15.75">
       <c r="A563" s="1"/>
@@ -6591,7 +6580,7 @@
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
-      <c r="H563" s="3"/>
+      <c r="H563" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="15.75">
       <c r="A564" s="1"/>
@@ -6601,7 +6590,7 @@
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
       <c r="G564" s="1"/>
-      <c r="H564" s="3"/>
+      <c r="H564" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="15.75">
       <c r="A565" s="1"/>
@@ -6611,7 +6600,7 @@
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
       <c r="G565" s="1"/>
-      <c r="H565" s="3"/>
+      <c r="H565" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="15.75">
       <c r="A566" s="1"/>
@@ -6621,7 +6610,7 @@
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
       <c r="G566" s="1"/>
-      <c r="H566" s="3"/>
+      <c r="H566" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="15.75">
       <c r="A567" s="1"/>
@@ -6631,7 +6620,7 @@
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
       <c r="G567" s="1"/>
-      <c r="H567" s="3"/>
+      <c r="H567" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="15.75">
       <c r="A568" s="1"/>
@@ -6641,7 +6630,7 @@
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
       <c r="G568" s="1"/>
-      <c r="H568" s="3"/>
+      <c r="H568" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="15.75">
       <c r="A569" s="1"/>
@@ -6651,7 +6640,7 @@
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
       <c r="G569" s="1"/>
-      <c r="H569" s="3"/>
+      <c r="H569" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="15.75">
       <c r="A570" s="1"/>
@@ -6661,7 +6650,7 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
       <c r="G570" s="1"/>
-      <c r="H570" s="3"/>
+      <c r="H570" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="15.75">
       <c r="A571" s="1"/>
@@ -6671,7 +6660,7 @@
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
       <c r="G571" s="1"/>
-      <c r="H571" s="3"/>
+      <c r="H571" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="15.75">
       <c r="A572" s="1"/>
@@ -6681,7 +6670,7 @@
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
       <c r="G572" s="1"/>
-      <c r="H572" s="3"/>
+      <c r="H572" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="15.75">
       <c r="A573" s="1"/>
@@ -6691,7 +6680,7 @@
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
       <c r="G573" s="1"/>
-      <c r="H573" s="3"/>
+      <c r="H573" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="15.75">
       <c r="A574" s="1"/>
@@ -6701,7 +6690,7 @@
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
       <c r="G574" s="1"/>
-      <c r="H574" s="3"/>
+      <c r="H574" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="15.75">
       <c r="A575" s="1"/>
@@ -6711,7 +6700,7 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
-      <c r="H575" s="3"/>
+      <c r="H575" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="15.75">
       <c r="A576" s="1"/>
@@ -6721,7 +6710,7 @@
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
       <c r="G576" s="1"/>
-      <c r="H576" s="3"/>
+      <c r="H576" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="15.75">
       <c r="A577" s="1"/>
@@ -6731,7 +6720,7 @@
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
       <c r="G577" s="1"/>
-      <c r="H577" s="3"/>
+      <c r="H577" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="15.75">
       <c r="A578" s="1"/>
@@ -6741,7 +6730,7 @@
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
       <c r="G578" s="1"/>
-      <c r="H578" s="3"/>
+      <c r="H578" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="15.75">
       <c r="A579" s="1"/>
@@ -6751,7 +6740,7 @@
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
       <c r="G579" s="1"/>
-      <c r="H579" s="3"/>
+      <c r="H579" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="15.75">
       <c r="A580" s="1"/>
@@ -6761,7 +6750,7 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="1"/>
-      <c r="H580" s="3"/>
+      <c r="H580" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="15.75">
       <c r="A581" s="1"/>
@@ -6771,7 +6760,7 @@
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
       <c r="G581" s="1"/>
-      <c r="H581" s="3"/>
+      <c r="H581" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="15.75">
       <c r="A582" s="1"/>
@@ -6781,7 +6770,7 @@
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
       <c r="G582" s="1"/>
-      <c r="H582" s="3"/>
+      <c r="H582" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="15.75">
       <c r="A583" s="1"/>
@@ -6791,7 +6780,7 @@
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
       <c r="G583" s="1"/>
-      <c r="H583" s="3"/>
+      <c r="H583" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="15.75">
       <c r="A584" s="1"/>
@@ -6801,7 +6790,7 @@
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
       <c r="G584" s="1"/>
-      <c r="H584" s="3"/>
+      <c r="H584" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="15.75">
       <c r="A585" s="1"/>
@@ -6811,7 +6800,7 @@
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
       <c r="G585" s="1"/>
-      <c r="H585" s="3"/>
+      <c r="H585" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="15.75">
       <c r="A586" s="1"/>
@@ -6821,7 +6810,7 @@
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
       <c r="G586" s="1"/>
-      <c r="H586" s="3"/>
+      <c r="H586" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="15.75">
       <c r="A587" s="1"/>
@@ -6831,7 +6820,7 @@
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
       <c r="G587" s="1"/>
-      <c r="H587" s="3"/>
+      <c r="H587" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="15.75">
       <c r="A588" s="1"/>
@@ -6841,7 +6830,7 @@
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
       <c r="G588" s="1"/>
-      <c r="H588" s="3"/>
+      <c r="H588" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="15.75">
       <c r="A589" s="1"/>
@@ -6851,7 +6840,7 @@
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
       <c r="G589" s="1"/>
-      <c r="H589" s="3"/>
+      <c r="H589" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="15.75">
       <c r="A590" s="1"/>
@@ -6861,7 +6850,7 @@
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
       <c r="G590" s="1"/>
-      <c r="H590" s="3"/>
+      <c r="H590" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="15.75">
       <c r="A591" s="1"/>
@@ -6871,7 +6860,7 @@
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
       <c r="G591" s="1"/>
-      <c r="H591" s="3"/>
+      <c r="H591" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="15.75">
       <c r="A592" s="1"/>
@@ -6881,7 +6870,7 @@
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
       <c r="G592" s="1"/>
-      <c r="H592" s="3"/>
+      <c r="H592" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="15.75">
       <c r="A593" s="1"/>
@@ -6891,7 +6880,7 @@
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
       <c r="G593" s="1"/>
-      <c r="H593" s="3"/>
+      <c r="H593" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="15.75">
       <c r="A594" s="1"/>
@@ -6901,7 +6890,7 @@
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
       <c r="G594" s="1"/>
-      <c r="H594" s="3"/>
+      <c r="H594" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="15.75">
       <c r="A595" s="1"/>
@@ -6911,7 +6900,7 @@
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
       <c r="G595" s="1"/>
-      <c r="H595" s="3"/>
+      <c r="H595" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="15.75">
       <c r="A596" s="1"/>
@@ -6921,7 +6910,7 @@
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
       <c r="G596" s="1"/>
-      <c r="H596" s="3"/>
+      <c r="H596" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="15.75">
       <c r="A597" s="1"/>
@@ -6931,7 +6920,7 @@
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
       <c r="G597" s="1"/>
-      <c r="H597" s="3"/>
+      <c r="H597" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="15.75">
       <c r="A598" s="1"/>
@@ -6941,7 +6930,7 @@
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
       <c r="G598" s="1"/>
-      <c r="H598" s="3"/>
+      <c r="H598" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="15.75">
       <c r="A599" s="1"/>
@@ -6951,7 +6940,7 @@
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
       <c r="G599" s="1"/>
-      <c r="H599" s="3"/>
+      <c r="H599" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="15.75">
       <c r="A600" s="1"/>
@@ -6961,7 +6950,7 @@
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
       <c r="G600" s="1"/>
-      <c r="H600" s="3"/>
+      <c r="H600" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="15.75">
       <c r="A601" s="1"/>
@@ -6971,7 +6960,7 @@
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
       <c r="G601" s="1"/>
-      <c r="H601" s="3"/>
+      <c r="H601" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="15.75">
       <c r="A602" s="1"/>
@@ -6981,7 +6970,7 @@
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
       <c r="G602" s="1"/>
-      <c r="H602" s="3"/>
+      <c r="H602" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="15.75">
       <c r="A603" s="1"/>
@@ -6991,7 +6980,7 @@
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
       <c r="G603" s="1"/>
-      <c r="H603" s="3"/>
+      <c r="H603" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="15.75">
       <c r="A604" s="1"/>
@@ -7001,7 +6990,7 @@
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
       <c r="G604" s="1"/>
-      <c r="H604" s="3"/>
+      <c r="H604" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="15.75">
       <c r="A605" s="1"/>
@@ -7011,7 +7000,7 @@
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
       <c r="G605" s="1"/>
-      <c r="H605" s="3"/>
+      <c r="H605" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="15.75">
       <c r="A606" s="1"/>
@@ -7021,7 +7010,7 @@
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
       <c r="G606" s="1"/>
-      <c r="H606" s="3"/>
+      <c r="H606" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="15.75">
       <c r="A607" s="1"/>
@@ -7031,7 +7020,7 @@
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
       <c r="G607" s="1"/>
-      <c r="H607" s="3"/>
+      <c r="H607" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="15.75">
       <c r="A608" s="1"/>
@@ -7041,7 +7030,7 @@
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
       <c r="G608" s="1"/>
-      <c r="H608" s="3"/>
+      <c r="H608" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="15.75">
       <c r="A609" s="1"/>
@@ -7051,7 +7040,7 @@
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
       <c r="G609" s="1"/>
-      <c r="H609" s="3"/>
+      <c r="H609" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="15.75">
       <c r="A610" s="1"/>
@@ -7061,7 +7050,7 @@
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
       <c r="G610" s="1"/>
-      <c r="H610" s="3"/>
+      <c r="H610" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="15.75">
       <c r="A611" s="1"/>
@@ -7071,7 +7060,7 @@
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
       <c r="G611" s="1"/>
-      <c r="H611" s="3"/>
+      <c r="H611" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="15.75">
       <c r="A612" s="1"/>
@@ -7081,7 +7070,7 @@
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
       <c r="G612" s="1"/>
-      <c r="H612" s="3"/>
+      <c r="H612" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="15.75">
       <c r="A613" s="1"/>
@@ -7091,7 +7080,7 @@
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
       <c r="G613" s="1"/>
-      <c r="H613" s="3"/>
+      <c r="H613" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="15.75">
       <c r="A614" s="1"/>
@@ -7101,7 +7090,7 @@
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
       <c r="G614" s="1"/>
-      <c r="H614" s="3"/>
+      <c r="H614" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="15.75">
       <c r="A615" s="1"/>
@@ -7111,7 +7100,7 @@
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
       <c r="G615" s="1"/>
-      <c r="H615" s="3"/>
+      <c r="H615" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="15.75">
       <c r="A616" s="1"/>
@@ -7121,7 +7110,7 @@
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
       <c r="G616" s="1"/>
-      <c r="H616" s="3"/>
+      <c r="H616" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="15.75">
       <c r="A617" s="1"/>
@@ -7131,7 +7120,7 @@
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
       <c r="G617" s="1"/>
-      <c r="H617" s="3"/>
+      <c r="H617" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="15.75">
       <c r="A618" s="1"/>
@@ -7141,7 +7130,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
       <c r="G618" s="1"/>
-      <c r="H618" s="3"/>
+      <c r="H618" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="15.75">
       <c r="A619" s="1"/>
@@ -7151,7 +7140,7 @@
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
       <c r="G619" s="1"/>
-      <c r="H619" s="3"/>
+      <c r="H619" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="15.75">
       <c r="A620" s="1"/>
@@ -7161,7 +7150,7 @@
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
       <c r="G620" s="1"/>
-      <c r="H620" s="3"/>
+      <c r="H620" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="15.75">
       <c r="A621" s="1"/>
@@ -7171,7 +7160,7 @@
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
       <c r="G621" s="1"/>
-      <c r="H621" s="3"/>
+      <c r="H621" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="15.75">
       <c r="A622" s="1"/>
@@ -7181,7 +7170,7 @@
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
       <c r="G622" s="1"/>
-      <c r="H622" s="3"/>
+      <c r="H622" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="15.75">
       <c r="A623" s="1"/>
@@ -7191,7 +7180,7 @@
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
       <c r="G623" s="1"/>
-      <c r="H623" s="3"/>
+      <c r="H623" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="15.75">
       <c r="A624" s="1"/>
@@ -7201,7 +7190,7 @@
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
       <c r="G624" s="1"/>
-      <c r="H624" s="3"/>
+      <c r="H624" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="15.75">
       <c r="A625" s="1"/>
@@ -7211,7 +7200,7 @@
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
       <c r="G625" s="1"/>
-      <c r="H625" s="3"/>
+      <c r="H625" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="15.75">
       <c r="A626" s="1"/>
@@ -7221,7 +7210,7 @@
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
       <c r="G626" s="1"/>
-      <c r="H626" s="3"/>
+      <c r="H626" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="15.75">
       <c r="A627" s="1"/>
@@ -7231,7 +7220,7 @@
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
       <c r="G627" s="1"/>
-      <c r="H627" s="3"/>
+      <c r="H627" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="15.75">
       <c r="A628" s="1"/>
@@ -7241,7 +7230,7 @@
       <c r="E628" s="1"/>
       <c r="F628" s="1"/>
       <c r="G628" s="1"/>
-      <c r="H628" s="3"/>
+      <c r="H628" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="15.75">
       <c r="A629" s="1"/>
@@ -7251,7 +7240,7 @@
       <c r="E629" s="1"/>
       <c r="F629" s="1"/>
       <c r="G629" s="1"/>
-      <c r="H629" s="3"/>
+      <c r="H629" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="15.75">
       <c r="A630" s="1"/>
@@ -7261,7 +7250,7 @@
       <c r="E630" s="1"/>
       <c r="F630" s="1"/>
       <c r="G630" s="1"/>
-      <c r="H630" s="3"/>
+      <c r="H630" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="15.75">
       <c r="A631" s="1"/>
@@ -7271,7 +7260,7 @@
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
       <c r="G631" s="1"/>
-      <c r="H631" s="3"/>
+      <c r="H631" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="15.75">
       <c r="A632" s="1"/>
@@ -7281,7 +7270,7 @@
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
       <c r="G632" s="1"/>
-      <c r="H632" s="3"/>
+      <c r="H632" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="15.75">
       <c r="A633" s="1"/>
@@ -7291,7 +7280,7 @@
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
       <c r="G633" s="1"/>
-      <c r="H633" s="3"/>
+      <c r="H633" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="15.75">
       <c r="A634" s="1"/>
@@ -7301,7 +7290,7 @@
       <c r="E634" s="1"/>
       <c r="F634" s="1"/>
       <c r="G634" s="1"/>
-      <c r="H634" s="3"/>
+      <c r="H634" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="15.75">
       <c r="A635" s="1"/>
@@ -7311,7 +7300,7 @@
       <c r="E635" s="1"/>
       <c r="F635" s="1"/>
       <c r="G635" s="1"/>
-      <c r="H635" s="3"/>
+      <c r="H635" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="15.75">
       <c r="A636" s="1"/>
@@ -7321,7 +7310,7 @@
       <c r="E636" s="1"/>
       <c r="F636" s="1"/>
       <c r="G636" s="1"/>
-      <c r="H636" s="3"/>
+      <c r="H636" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="15.75">
       <c r="A637" s="1"/>
@@ -7331,7 +7320,7 @@
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
       <c r="G637" s="1"/>
-      <c r="H637" s="3"/>
+      <c r="H637" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="15.75">
       <c r="A638" s="1"/>
@@ -7341,7 +7330,7 @@
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
       <c r="G638" s="1"/>
-      <c r="H638" s="3"/>
+      <c r="H638" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="15.75">
       <c r="A639" s="1"/>
@@ -7351,7 +7340,7 @@
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
       <c r="G639" s="1"/>
-      <c r="H639" s="3"/>
+      <c r="H639" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="15.75">
       <c r="A640" s="1"/>
@@ -7361,7 +7350,7 @@
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
       <c r="G640" s="1"/>
-      <c r="H640" s="3"/>
+      <c r="H640" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="15.75">
       <c r="A641" s="1"/>
@@ -7371,7 +7360,7 @@
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
       <c r="G641" s="1"/>
-      <c r="H641" s="3"/>
+      <c r="H641" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="15.75">
       <c r="A642" s="1"/>
@@ -7381,7 +7370,7 @@
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
       <c r="G642" s="1"/>
-      <c r="H642" s="3"/>
+      <c r="H642" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="15.75">
       <c r="A643" s="1"/>
@@ -7391,7 +7380,7 @@
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
       <c r="G643" s="1"/>
-      <c r="H643" s="3"/>
+      <c r="H643" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="15.75">
       <c r="A644" s="1"/>
@@ -7401,7 +7390,7 @@
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
       <c r="G644" s="1"/>
-      <c r="H644" s="3"/>
+      <c r="H644" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="15.75">
       <c r="A645" s="1"/>
@@ -7411,7 +7400,7 @@
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
       <c r="G645" s="1"/>
-      <c r="H645" s="3"/>
+      <c r="H645" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="15.75">
       <c r="A646" s="1"/>
@@ -7421,7 +7410,7 @@
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
       <c r="G646" s="1"/>
-      <c r="H646" s="3"/>
+      <c r="H646" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="15.75">
       <c r="A647" s="1"/>
@@ -7431,7 +7420,7 @@
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
       <c r="G647" s="1"/>
-      <c r="H647" s="3"/>
+      <c r="H647" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="15.75">
       <c r="A648" s="1"/>
@@ -7441,7 +7430,7 @@
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
       <c r="G648" s="1"/>
-      <c r="H648" s="3"/>
+      <c r="H648" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="15.75">
       <c r="A649" s="1"/>
@@ -7451,7 +7440,7 @@
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
       <c r="G649" s="1"/>
-      <c r="H649" s="3"/>
+      <c r="H649" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="15.75">
       <c r="A650" s="1"/>
@@ -7461,7 +7450,7 @@
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
       <c r="G650" s="1"/>
-      <c r="H650" s="3"/>
+      <c r="H650" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="15.75">
       <c r="A651" s="1"/>
@@ -7471,7 +7460,7 @@
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
       <c r="G651" s="1"/>
-      <c r="H651" s="3"/>
+      <c r="H651" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="15.75">
       <c r="A652" s="1"/>
@@ -7481,7 +7470,7 @@
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
       <c r="G652" s="1"/>
-      <c r="H652" s="3"/>
+      <c r="H652" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="15.75">
       <c r="A653" s="1"/>
@@ -7491,7 +7480,7 @@
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
       <c r="G653" s="1"/>
-      <c r="H653" s="3"/>
+      <c r="H653" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="15.75">
       <c r="A654" s="1"/>
@@ -7501,7 +7490,7 @@
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
       <c r="G654" s="1"/>
-      <c r="H654" s="3"/>
+      <c r="H654" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="15.75">
       <c r="A655" s="1"/>
@@ -7511,7 +7500,7 @@
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
       <c r="G655" s="1"/>
-      <c r="H655" s="3"/>
+      <c r="H655" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="15.75">
       <c r="A656" s="1"/>
@@ -7521,7 +7510,7 @@
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
       <c r="G656" s="1"/>
-      <c r="H656" s="3"/>
+      <c r="H656" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="15.75">
       <c r="A657" s="1"/>
@@ -7531,7 +7520,7 @@
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
       <c r="G657" s="1"/>
-      <c r="H657" s="3"/>
+      <c r="H657" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="15.75">
       <c r="A658" s="1"/>
@@ -7541,7 +7530,7 @@
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
       <c r="G658" s="1"/>
-      <c r="H658" s="3"/>
+      <c r="H658" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="15.75">
       <c r="A659" s="1"/>
@@ -7551,7 +7540,7 @@
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
       <c r="G659" s="1"/>
-      <c r="H659" s="3"/>
+      <c r="H659" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="15.75">
       <c r="A660" s="1"/>
@@ -7561,7 +7550,7 @@
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
       <c r="G660" s="1"/>
-      <c r="H660" s="3"/>
+      <c r="H660" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="15.75">
       <c r="A661" s="1"/>
@@ -7571,7 +7560,7 @@
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
       <c r="G661" s="1"/>
-      <c r="H661" s="3"/>
+      <c r="H661" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="15.75">
       <c r="A662" s="1"/>
@@ -7581,7 +7570,7 @@
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
       <c r="G662" s="1"/>
-      <c r="H662" s="3"/>
+      <c r="H662" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="15.75">
       <c r="A663" s="1"/>
@@ -7591,7 +7580,7 @@
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
       <c r="G663" s="1"/>
-      <c r="H663" s="3"/>
+      <c r="H663" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="15.75">
       <c r="A664" s="1"/>
@@ -7601,7 +7590,7 @@
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
       <c r="G664" s="1"/>
-      <c r="H664" s="3"/>
+      <c r="H664" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="15.75">
       <c r="A665" s="1"/>
@@ -7611,7 +7600,7 @@
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
       <c r="G665" s="1"/>
-      <c r="H665" s="3"/>
+      <c r="H665" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="15.75">
       <c r="A666" s="1"/>
@@ -7621,7 +7610,7 @@
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
       <c r="G666" s="1"/>
-      <c r="H666" s="3"/>
+      <c r="H666" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="15.75">
       <c r="A667" s="1"/>
@@ -7631,7 +7620,7 @@
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
       <c r="G667" s="1"/>
-      <c r="H667" s="3"/>
+      <c r="H667" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="15.75">
       <c r="A668" s="1"/>
@@ -7641,7 +7630,7 @@
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
       <c r="G668" s="1"/>
-      <c r="H668" s="3"/>
+      <c r="H668" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="15.75">
       <c r="A669" s="1"/>
@@ -7651,7 +7640,7 @@
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
       <c r="G669" s="1"/>
-      <c r="H669" s="3"/>
+      <c r="H669" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="15.75">
       <c r="A670" s="1"/>
@@ -7661,7 +7650,7 @@
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
       <c r="G670" s="1"/>
-      <c r="H670" s="3"/>
+      <c r="H670" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="15.75">
       <c r="A671" s="1"/>
@@ -7671,7 +7660,7 @@
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
       <c r="G671" s="1"/>
-      <c r="H671" s="3"/>
+      <c r="H671" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="15.75">
       <c r="A672" s="1"/>
@@ -7681,7 +7670,7 @@
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
       <c r="G672" s="1"/>
-      <c r="H672" s="3"/>
+      <c r="H672" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="15.75">
       <c r="A673" s="1"/>
@@ -7691,7 +7680,7 @@
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
       <c r="G673" s="1"/>
-      <c r="H673" s="3"/>
+      <c r="H673" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="15.75">
       <c r="A674" s="1"/>
@@ -7701,7 +7690,7 @@
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
       <c r="G674" s="1"/>
-      <c r="H674" s="3"/>
+      <c r="H674" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="15.75">
       <c r="A675" s="1"/>
@@ -7711,7 +7700,7 @@
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
       <c r="G675" s="1"/>
-      <c r="H675" s="3"/>
+      <c r="H675" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="15.75">
       <c r="A676" s="1"/>
@@ -7721,7 +7710,7 @@
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
       <c r="G676" s="1"/>
-      <c r="H676" s="3"/>
+      <c r="H676" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="15.75">
       <c r="A677" s="1"/>
@@ -7731,7 +7720,7 @@
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
       <c r="G677" s="1"/>
-      <c r="H677" s="3"/>
+      <c r="H677" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="15.75">
       <c r="A678" s="1"/>
@@ -7741,7 +7730,7 @@
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
       <c r="G678" s="1"/>
-      <c r="H678" s="3"/>
+      <c r="H678" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="15.75">
       <c r="A679" s="1"/>
@@ -7751,7 +7740,7 @@
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
       <c r="G679" s="1"/>
-      <c r="H679" s="3"/>
+      <c r="H679" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="15.75">
       <c r="A680" s="1"/>
@@ -7761,7 +7750,7 @@
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
       <c r="G680" s="1"/>
-      <c r="H680" s="3"/>
+      <c r="H680" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="15.75">
       <c r="A681" s="1"/>
@@ -7771,7 +7760,7 @@
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
       <c r="G681" s="1"/>
-      <c r="H681" s="3"/>
+      <c r="H681" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="15.75">
       <c r="A682" s="1"/>
@@ -7781,7 +7770,7 @@
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
       <c r="G682" s="1"/>
-      <c r="H682" s="3"/>
+      <c r="H682" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="15.75">
       <c r="A683" s="1"/>
@@ -7791,7 +7780,7 @@
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
       <c r="G683" s="1"/>
-      <c r="H683" s="3"/>
+      <c r="H683" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="15.75">
       <c r="A684" s="1"/>
@@ -7801,7 +7790,7 @@
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
       <c r="G684" s="1"/>
-      <c r="H684" s="3"/>
+      <c r="H684" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="15.75">
       <c r="A685" s="1"/>
@@ -7811,7 +7800,7 @@
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
       <c r="G685" s="1"/>
-      <c r="H685" s="3"/>
+      <c r="H685" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="15.75">
       <c r="A686" s="1"/>
@@ -7821,7 +7810,7 @@
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
       <c r="G686" s="1"/>
-      <c r="H686" s="3"/>
+      <c r="H686" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="15.75">
       <c r="A687" s="1"/>
@@ -7831,7 +7820,7 @@
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
       <c r="G687" s="1"/>
-      <c r="H687" s="3"/>
+      <c r="H687" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="15.75">
       <c r="A688" s="1"/>
@@ -7841,7 +7830,7 @@
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
       <c r="G688" s="1"/>
-      <c r="H688" s="3"/>
+      <c r="H688" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="15.75">
       <c r="A689" s="1"/>
@@ -7851,7 +7840,7 @@
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
       <c r="G689" s="1"/>
-      <c r="H689" s="3"/>
+      <c r="H689" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="15.75">
       <c r="A690" s="1"/>
@@ -7861,7 +7850,7 @@
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
       <c r="G690" s="1"/>
-      <c r="H690" s="3"/>
+      <c r="H690" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="15.75">
       <c r="A691" s="1"/>
@@ -7871,7 +7860,7 @@
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
       <c r="G691" s="1"/>
-      <c r="H691" s="3"/>
+      <c r="H691" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="15.75">
       <c r="A692" s="1"/>
@@ -7881,7 +7870,7 @@
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
       <c r="G692" s="1"/>
-      <c r="H692" s="3"/>
+      <c r="H692" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="15.75">
       <c r="A693" s="1"/>
@@ -7891,7 +7880,7 @@
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
       <c r="G693" s="1"/>
-      <c r="H693" s="3"/>
+      <c r="H693" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="15.75">
       <c r="A694" s="1"/>
@@ -7901,7 +7890,7 @@
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
       <c r="G694" s="1"/>
-      <c r="H694" s="3"/>
+      <c r="H694" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="15.75">
       <c r="A695" s="1"/>
@@ -7911,7 +7900,7 @@
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
       <c r="G695" s="1"/>
-      <c r="H695" s="3"/>
+      <c r="H695" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="15.75">
       <c r="A696" s="1"/>
@@ -7921,7 +7910,7 @@
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
       <c r="G696" s="1"/>
-      <c r="H696" s="3"/>
+      <c r="H696" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="15.75">
       <c r="A697" s="1"/>
@@ -7931,7 +7920,7 @@
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
       <c r="G697" s="1"/>
-      <c r="H697" s="3"/>
+      <c r="H697" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="15.75">
       <c r="A698" s="1"/>
@@ -7941,7 +7930,7 @@
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
       <c r="G698" s="1"/>
-      <c r="H698" s="3"/>
+      <c r="H698" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="15.75">
       <c r="A699" s="1"/>
@@ -7951,7 +7940,7 @@
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
       <c r="G699" s="1"/>
-      <c r="H699" s="3"/>
+      <c r="H699" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="15.75">
       <c r="A700" s="1"/>
@@ -7961,7 +7950,7 @@
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
       <c r="G700" s="1"/>
-      <c r="H700" s="3"/>
+      <c r="H700" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="15.75">
       <c r="A701" s="1"/>
@@ -7971,7 +7960,7 @@
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
       <c r="G701" s="1"/>
-      <c r="H701" s="3"/>
+      <c r="H701" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="15.75">
       <c r="A702" s="1"/>
@@ -7981,7 +7970,7 @@
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
       <c r="G702" s="1"/>
-      <c r="H702" s="3"/>
+      <c r="H702" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="15.75">
       <c r="A703" s="1"/>
@@ -7991,7 +7980,7 @@
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
       <c r="G703" s="1"/>
-      <c r="H703" s="3"/>
+      <c r="H703" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="15.75">
       <c r="A704" s="1"/>
@@ -8001,7 +7990,7 @@
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
       <c r="G704" s="1"/>
-      <c r="H704" s="3"/>
+      <c r="H704" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="15.75">
       <c r="A705" s="1"/>
@@ -8011,7 +8000,7 @@
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
       <c r="G705" s="1"/>
-      <c r="H705" s="3"/>
+      <c r="H705" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="15.75">
       <c r="A706" s="1"/>
@@ -8021,7 +8010,7 @@
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
       <c r="G706" s="1"/>
-      <c r="H706" s="3"/>
+      <c r="H706" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="15.75">
       <c r="A707" s="1"/>
@@ -8031,7 +8020,7 @@
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
       <c r="G707" s="1"/>
-      <c r="H707" s="3"/>
+      <c r="H707" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="15.75">
       <c r="A708" s="1"/>
@@ -8041,7 +8030,7 @@
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
       <c r="G708" s="1"/>
-      <c r="H708" s="3"/>
+      <c r="H708" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="15.75">
       <c r="A709" s="1"/>
@@ -8051,7 +8040,7 @@
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
       <c r="G709" s="1"/>
-      <c r="H709" s="3"/>
+      <c r="H709" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="15.75">
       <c r="A710" s="1"/>
@@ -8061,7 +8050,7 @@
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
       <c r="G710" s="1"/>
-      <c r="H710" s="3"/>
+      <c r="H710" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="15.75">
       <c r="A711" s="1"/>
@@ -8071,7 +8060,7 @@
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
       <c r="G711" s="1"/>
-      <c r="H711" s="3"/>
+      <c r="H711" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="15.75">
       <c r="A712" s="1"/>
@@ -8081,7 +8070,7 @@
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
       <c r="G712" s="1"/>
-      <c r="H712" s="3"/>
+      <c r="H712" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="15.75">
       <c r="A713" s="1"/>
@@ -8091,7 +8080,7 @@
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
       <c r="G713" s="1"/>
-      <c r="H713" s="3"/>
+      <c r="H713" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="15.75">
       <c r="A714" s="1"/>
@@ -8101,7 +8090,7 @@
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
       <c r="G714" s="1"/>
-      <c r="H714" s="3"/>
+      <c r="H714" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="15.75">
       <c r="A715" s="1"/>
@@ -8111,7 +8100,7 @@
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
       <c r="G715" s="1"/>
-      <c r="H715" s="3"/>
+      <c r="H715" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="15.75">
       <c r="A716" s="1"/>
@@ -8121,7 +8110,7 @@
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
       <c r="G716" s="1"/>
-      <c r="H716" s="3"/>
+      <c r="H716" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="15.75">
       <c r="A717" s="1"/>
@@ -8131,7 +8120,7 @@
       <c r="E717" s="1"/>
       <c r="F717" s="1"/>
       <c r="G717" s="1"/>
-      <c r="H717" s="3"/>
+      <c r="H717" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="15.75">
       <c r="A718" s="1"/>
@@ -8141,7 +8130,7 @@
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
       <c r="G718" s="1"/>
-      <c r="H718" s="3"/>
+      <c r="H718" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="15.75">
       <c r="A719" s="1"/>
@@ -8151,7 +8140,7 @@
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
       <c r="G719" s="1"/>
-      <c r="H719" s="3"/>
+      <c r="H719" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="15.75">
       <c r="A720" s="1"/>
@@ -8161,7 +8150,7 @@
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
       <c r="G720" s="1"/>
-      <c r="H720" s="3"/>
+      <c r="H720" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="15.75">
       <c r="A721" s="1"/>
@@ -8171,7 +8160,7 @@
       <c r="E721" s="1"/>
       <c r="F721" s="1"/>
       <c r="G721" s="1"/>
-      <c r="H721" s="3"/>
+      <c r="H721" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="15.75">
       <c r="A722" s="1"/>
@@ -8181,7 +8170,7 @@
       <c r="E722" s="1"/>
       <c r="F722" s="1"/>
       <c r="G722" s="1"/>
-      <c r="H722" s="3"/>
+      <c r="H722" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="15.75">
       <c r="A723" s="1"/>
@@ -8191,7 +8180,7 @@
       <c r="E723" s="1"/>
       <c r="F723" s="1"/>
       <c r="G723" s="1"/>
-      <c r="H723" s="3"/>
+      <c r="H723" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="15.75">
       <c r="A724" s="1"/>
@@ -8201,7 +8190,7 @@
       <c r="E724" s="1"/>
       <c r="F724" s="1"/>
       <c r="G724" s="1"/>
-      <c r="H724" s="3"/>
+      <c r="H724" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="15.75">
       <c r="A725" s="1"/>
@@ -8211,7 +8200,7 @@
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
       <c r="G725" s="1"/>
-      <c r="H725" s="3"/>
+      <c r="H725" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="15.75">
       <c r="A726" s="1"/>
@@ -8221,7 +8210,7 @@
       <c r="E726" s="1"/>
       <c r="F726" s="1"/>
       <c r="G726" s="1"/>
-      <c r="H726" s="3"/>
+      <c r="H726" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="15.75">
       <c r="A727" s="1"/>
@@ -8231,7 +8220,7 @@
       <c r="E727" s="1"/>
       <c r="F727" s="1"/>
       <c r="G727" s="1"/>
-      <c r="H727" s="3"/>
+      <c r="H727" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="15.75">
       <c r="A728" s="1"/>
@@ -8241,7 +8230,7 @@
       <c r="E728" s="1"/>
       <c r="F728" s="1"/>
       <c r="G728" s="1"/>
-      <c r="H728" s="3"/>
+      <c r="H728" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="15.75">
       <c r="A729" s="1"/>
@@ -8251,7 +8240,7 @@
       <c r="E729" s="1"/>
       <c r="F729" s="1"/>
       <c r="G729" s="1"/>
-      <c r="H729" s="3"/>
+      <c r="H729" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="15.75">
       <c r="A730" s="1"/>
@@ -8261,7 +8250,7 @@
       <c r="E730" s="1"/>
       <c r="F730" s="1"/>
       <c r="G730" s="1"/>
-      <c r="H730" s="3"/>
+      <c r="H730" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="15.75">
       <c r="A731" s="1"/>
@@ -8271,7 +8260,7 @@
       <c r="E731" s="1"/>
       <c r="F731" s="1"/>
       <c r="G731" s="1"/>
-      <c r="H731" s="3"/>
+      <c r="H731" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="15.75">
       <c r="A732" s="1"/>
@@ -8281,7 +8270,7 @@
       <c r="E732" s="1"/>
       <c r="F732" s="1"/>
       <c r="G732" s="1"/>
-      <c r="H732" s="3"/>
+      <c r="H732" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="15.75">
       <c r="A733" s="1"/>
@@ -8291,7 +8280,7 @@
       <c r="E733" s="1"/>
       <c r="F733" s="1"/>
       <c r="G733" s="1"/>
-      <c r="H733" s="3"/>
+      <c r="H733" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="15.75">
       <c r="A734" s="1"/>
@@ -8301,7 +8290,7 @@
       <c r="E734" s="1"/>
       <c r="F734" s="1"/>
       <c r="G734" s="1"/>
-      <c r="H734" s="3"/>
+      <c r="H734" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="15.75">
       <c r="A735" s="1"/>
@@ -8311,7 +8300,7 @@
       <c r="E735" s="1"/>
       <c r="F735" s="1"/>
       <c r="G735" s="1"/>
-      <c r="H735" s="3"/>
+      <c r="H735" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="15.75">
       <c r="A736" s="1"/>
@@ -8321,7 +8310,7 @@
       <c r="E736" s="1"/>
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
-      <c r="H736" s="3"/>
+      <c r="H736" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="15.75">
       <c r="A737" s="1"/>
@@ -8331,7 +8320,7 @@
       <c r="E737" s="1"/>
       <c r="F737" s="1"/>
       <c r="G737" s="1"/>
-      <c r="H737" s="3"/>
+      <c r="H737" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="15.75">
       <c r="A738" s="1"/>
@@ -8341,7 +8330,7 @@
       <c r="E738" s="1"/>
       <c r="F738" s="1"/>
       <c r="G738" s="1"/>
-      <c r="H738" s="3"/>
+      <c r="H738" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="15.75">
       <c r="A739" s="1"/>
@@ -8351,7 +8340,7 @@
       <c r="E739" s="1"/>
       <c r="F739" s="1"/>
       <c r="G739" s="1"/>
-      <c r="H739" s="3"/>
+      <c r="H739" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="15.75">
       <c r="A740" s="1"/>
@@ -8361,7 +8350,7 @@
       <c r="E740" s="1"/>
       <c r="F740" s="1"/>
       <c r="G740" s="1"/>
-      <c r="H740" s="3"/>
+      <c r="H740" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="15.75">
       <c r="A741" s="1"/>
@@ -8371,7 +8360,7 @@
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
       <c r="G741" s="1"/>
-      <c r="H741" s="3"/>
+      <c r="H741" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="15.75">
       <c r="A742" s="1"/>
@@ -8381,7 +8370,7 @@
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
       <c r="G742" s="1"/>
-      <c r="H742" s="3"/>
+      <c r="H742" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="15.75">
       <c r="A743" s="1"/>
@@ -8391,7 +8380,7 @@
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
       <c r="G743" s="1"/>
-      <c r="H743" s="3"/>
+      <c r="H743" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="15.75">
       <c r="A744" s="1"/>
@@ -8401,7 +8390,7 @@
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
       <c r="G744" s="1"/>
-      <c r="H744" s="3"/>
+      <c r="H744" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="15.75">
       <c r="A745" s="1"/>
@@ -8411,7 +8400,7 @@
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
       <c r="G745" s="1"/>
-      <c r="H745" s="3"/>
+      <c r="H745" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="15.75">
       <c r="A746" s="1"/>
@@ -8421,7 +8410,7 @@
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
       <c r="G746" s="1"/>
-      <c r="H746" s="3"/>
+      <c r="H746" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="15.75">
       <c r="A747" s="1"/>
@@ -8431,7 +8420,7 @@
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
       <c r="G747" s="1"/>
-      <c r="H747" s="3"/>
+      <c r="H747" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="15.75">
       <c r="A748" s="1"/>
@@ -8441,7 +8430,7 @@
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
       <c r="G748" s="1"/>
-      <c r="H748" s="3"/>
+      <c r="H748" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="15.75">
       <c r="A749" s="1"/>
@@ -8451,7 +8440,7 @@
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
       <c r="G749" s="1"/>
-      <c r="H749" s="3"/>
+      <c r="H749" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="15.75">
       <c r="A750" s="1"/>
@@ -8461,7 +8450,7 @@
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
       <c r="G750" s="1"/>
-      <c r="H750" s="3"/>
+      <c r="H750" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="15.75">
       <c r="A751" s="1"/>
@@ -8471,7 +8460,7 @@
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
       <c r="G751" s="1"/>
-      <c r="H751" s="3"/>
+      <c r="H751" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="15.75">
       <c r="A752" s="1"/>
@@ -8481,7 +8470,7 @@
       <c r="E752" s="1"/>
       <c r="F752" s="1"/>
       <c r="G752" s="1"/>
-      <c r="H752" s="3"/>
+      <c r="H752" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="15.75">
       <c r="A753" s="1"/>
@@ -8491,7 +8480,7 @@
       <c r="E753" s="1"/>
       <c r="F753" s="1"/>
       <c r="G753" s="1"/>
-      <c r="H753" s="3"/>
+      <c r="H753" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="15.75">
       <c r="A754" s="1"/>
@@ -8501,7 +8490,7 @@
       <c r="E754" s="1"/>
       <c r="F754" s="1"/>
       <c r="G754" s="1"/>
-      <c r="H754" s="3"/>
+      <c r="H754" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="15.75">
       <c r="A755" s="1"/>
@@ -8511,7 +8500,7 @@
       <c r="E755" s="1"/>
       <c r="F755" s="1"/>
       <c r="G755" s="1"/>
-      <c r="H755" s="3"/>
+      <c r="H755" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="15.75">
       <c r="A756" s="1"/>
@@ -8521,7 +8510,7 @@
       <c r="E756" s="1"/>
       <c r="F756" s="1"/>
       <c r="G756" s="1"/>
-      <c r="H756" s="3"/>
+      <c r="H756" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="15.75">
       <c r="A757" s="1"/>
@@ -8531,7 +8520,7 @@
       <c r="E757" s="1"/>
       <c r="F757" s="1"/>
       <c r="G757" s="1"/>
-      <c r="H757" s="3"/>
+      <c r="H757" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="15.75">
       <c r="A758" s="1"/>
@@ -8541,7 +8530,7 @@
       <c r="E758" s="1"/>
       <c r="F758" s="1"/>
       <c r="G758" s="1"/>
-      <c r="H758" s="3"/>
+      <c r="H758" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="15.75">
       <c r="A759" s="1"/>
@@ -8551,7 +8540,7 @@
       <c r="E759" s="1"/>
       <c r="F759" s="1"/>
       <c r="G759" s="1"/>
-      <c r="H759" s="3"/>
+      <c r="H759" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="15.75">
       <c r="A760" s="1"/>
@@ -8561,7 +8550,7 @@
       <c r="E760" s="1"/>
       <c r="F760" s="1"/>
       <c r="G760" s="1"/>
-      <c r="H760" s="3"/>
+      <c r="H760" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="15.75">
       <c r="A761" s="1"/>
@@ -8571,7 +8560,7 @@
       <c r="E761" s="1"/>
       <c r="F761" s="1"/>
       <c r="G761" s="1"/>
-      <c r="H761" s="3"/>
+      <c r="H761" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="15.75">
       <c r="A762" s="1"/>
@@ -8581,7 +8570,7 @@
       <c r="E762" s="1"/>
       <c r="F762" s="1"/>
       <c r="G762" s="1"/>
-      <c r="H762" s="3"/>
+      <c r="H762" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="15.75">
       <c r="A763" s="1"/>
@@ -8591,7 +8580,7 @@
       <c r="E763" s="1"/>
       <c r="F763" s="1"/>
       <c r="G763" s="1"/>
-      <c r="H763" s="3"/>
+      <c r="H763" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="15.75">
       <c r="A764" s="1"/>
@@ -8601,7 +8590,7 @@
       <c r="E764" s="1"/>
       <c r="F764" s="1"/>
       <c r="G764" s="1"/>
-      <c r="H764" s="3"/>
+      <c r="H764" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="15.75">
       <c r="A765" s="1"/>
@@ -8611,7 +8600,7 @@
       <c r="E765" s="1"/>
       <c r="F765" s="1"/>
       <c r="G765" s="1"/>
-      <c r="H765" s="3"/>
+      <c r="H765" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="15.75">
       <c r="A766" s="1"/>
@@ -8621,7 +8610,7 @@
       <c r="E766" s="1"/>
       <c r="F766" s="1"/>
       <c r="G766" s="1"/>
-      <c r="H766" s="3"/>
+      <c r="H766" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="15.75">
       <c r="A767" s="1"/>
@@ -8631,7 +8620,7 @@
       <c r="E767" s="1"/>
       <c r="F767" s="1"/>
       <c r="G767" s="1"/>
-      <c r="H767" s="3"/>
+      <c r="H767" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="15.75">
       <c r="A768" s="1"/>
@@ -8641,7 +8630,7 @@
       <c r="E768" s="1"/>
       <c r="F768" s="1"/>
       <c r="G768" s="1"/>
-      <c r="H768" s="3"/>
+      <c r="H768" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="15.75">
       <c r="A769" s="1"/>
@@ -8651,7 +8640,7 @@
       <c r="E769" s="1"/>
       <c r="F769" s="1"/>
       <c r="G769" s="1"/>
-      <c r="H769" s="3"/>
+      <c r="H769" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="15.75">
       <c r="A770" s="1"/>
@@ -8661,7 +8650,7 @@
       <c r="E770" s="1"/>
       <c r="F770" s="1"/>
       <c r="G770" s="1"/>
-      <c r="H770" s="3"/>
+      <c r="H770" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="15.75">
       <c r="A771" s="1"/>
@@ -8671,7 +8660,7 @@
       <c r="E771" s="1"/>
       <c r="F771" s="1"/>
       <c r="G771" s="1"/>
-      <c r="H771" s="3"/>
+      <c r="H771" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="15.75">
       <c r="A772" s="1"/>
@@ -8681,7 +8670,7 @@
       <c r="E772" s="1"/>
       <c r="F772" s="1"/>
       <c r="G772" s="1"/>
-      <c r="H772" s="3"/>
+      <c r="H772" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="15.75">
       <c r="A773" s="1"/>
@@ -8691,7 +8680,7 @@
       <c r="E773" s="1"/>
       <c r="F773" s="1"/>
       <c r="G773" s="1"/>
-      <c r="H773" s="3"/>
+      <c r="H773" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="15.75">
       <c r="A774" s="1"/>
@@ -8701,7 +8690,7 @@
       <c r="E774" s="1"/>
       <c r="F774" s="1"/>
       <c r="G774" s="1"/>
-      <c r="H774" s="3"/>
+      <c r="H774" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="15.75">
       <c r="A775" s="1"/>
@@ -8711,7 +8700,7 @@
       <c r="E775" s="1"/>
       <c r="F775" s="1"/>
       <c r="G775" s="1"/>
-      <c r="H775" s="3"/>
+      <c r="H775" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="15.75">
       <c r="A776" s="1"/>
@@ -8721,7 +8710,7 @@
       <c r="E776" s="1"/>
       <c r="F776" s="1"/>
       <c r="G776" s="1"/>
-      <c r="H776" s="3"/>
+      <c r="H776" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="15.75">
       <c r="A777" s="1"/>
@@ -8731,7 +8720,7 @@
       <c r="E777" s="1"/>
       <c r="F777" s="1"/>
       <c r="G777" s="1"/>
-      <c r="H777" s="3"/>
+      <c r="H777" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="15.75">
       <c r="A778" s="1"/>
@@ -8741,7 +8730,7 @@
       <c r="E778" s="1"/>
       <c r="F778" s="1"/>
       <c r="G778" s="1"/>
-      <c r="H778" s="3"/>
+      <c r="H778" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="15.75">
       <c r="A779" s="1"/>
@@ -8751,7 +8740,7 @@
       <c r="E779" s="1"/>
       <c r="F779" s="1"/>
       <c r="G779" s="1"/>
-      <c r="H779" s="3"/>
+      <c r="H779" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="15.75">
       <c r="A780" s="1"/>
@@ -8761,7 +8750,7 @@
       <c r="E780" s="1"/>
       <c r="F780" s="1"/>
       <c r="G780" s="1"/>
-      <c r="H780" s="3"/>
+      <c r="H780" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="15.75">
       <c r="A781" s="1"/>
@@ -8771,7 +8760,7 @@
       <c r="E781" s="1"/>
       <c r="F781" s="1"/>
       <c r="G781" s="1"/>
-      <c r="H781" s="3"/>
+      <c r="H781" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="15.75">
       <c r="A782" s="1"/>
@@ -8781,7 +8770,7 @@
       <c r="E782" s="1"/>
       <c r="F782" s="1"/>
       <c r="G782" s="1"/>
-      <c r="H782" s="3"/>
+      <c r="H782" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="15.75">
       <c r="A783" s="1"/>
@@ -8791,7 +8780,7 @@
       <c r="E783" s="1"/>
       <c r="F783" s="1"/>
       <c r="G783" s="1"/>
-      <c r="H783" s="3"/>
+      <c r="H783" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="15.75">
       <c r="A784" s="1"/>
@@ -8801,7 +8790,7 @@
       <c r="E784" s="1"/>
       <c r="F784" s="1"/>
       <c r="G784" s="1"/>
-      <c r="H784" s="3"/>
+      <c r="H784" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="15.75">
       <c r="A785" s="1"/>
@@ -8811,7 +8800,7 @@
       <c r="E785" s="1"/>
       <c r="F785" s="1"/>
       <c r="G785" s="1"/>
-      <c r="H785" s="3"/>
+      <c r="H785" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="15.75">
       <c r="A786" s="1"/>
@@ -8821,7 +8810,7 @@
       <c r="E786" s="1"/>
       <c r="F786" s="1"/>
       <c r="G786" s="1"/>
-      <c r="H786" s="3"/>
+      <c r="H786" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="15.75">
       <c r="A787" s="1"/>
@@ -8831,7 +8820,7 @@
       <c r="E787" s="1"/>
       <c r="F787" s="1"/>
       <c r="G787" s="1"/>
-      <c r="H787" s="3"/>
+      <c r="H787" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="15.75">
       <c r="A788" s="1"/>
@@ -8841,7 +8830,7 @@
       <c r="E788" s="1"/>
       <c r="F788" s="1"/>
       <c r="G788" s="1"/>
-      <c r="H788" s="3"/>
+      <c r="H788" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="15.75">
       <c r="A789" s="1"/>
@@ -8851,7 +8840,7 @@
       <c r="E789" s="1"/>
       <c r="F789" s="1"/>
       <c r="G789" s="1"/>
-      <c r="H789" s="3"/>
+      <c r="H789" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="15.75">
       <c r="A790" s="1"/>
@@ -8861,7 +8850,7 @@
       <c r="E790" s="1"/>
       <c r="F790" s="1"/>
       <c r="G790" s="1"/>
-      <c r="H790" s="3"/>
+      <c r="H790" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="15.75">
       <c r="A791" s="1"/>
@@ -8871,7 +8860,7 @@
       <c r="E791" s="1"/>
       <c r="F791" s="1"/>
       <c r="G791" s="1"/>
-      <c r="H791" s="3"/>
+      <c r="H791" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="15.75">
       <c r="A792" s="1"/>
@@ -8881,7 +8870,7 @@
       <c r="E792" s="1"/>
       <c r="F792" s="1"/>
       <c r="G792" s="1"/>
-      <c r="H792" s="3"/>
+      <c r="H792" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="15.75">
       <c r="A793" s="1"/>
@@ -8891,7 +8880,7 @@
       <c r="E793" s="1"/>
       <c r="F793" s="1"/>
       <c r="G793" s="1"/>
-      <c r="H793" s="3"/>
+      <c r="H793" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="15.75">
       <c r="A794" s="1"/>
@@ -8901,7 +8890,7 @@
       <c r="E794" s="1"/>
       <c r="F794" s="1"/>
       <c r="G794" s="1"/>
-      <c r="H794" s="3"/>
+      <c r="H794" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="15.75">
       <c r="A795" s="1"/>
@@ -8911,7 +8900,7 @@
       <c r="E795" s="1"/>
       <c r="F795" s="1"/>
       <c r="G795" s="1"/>
-      <c r="H795" s="3"/>
+      <c r="H795" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="15.75">
       <c r="A796" s="1"/>
@@ -8921,7 +8910,7 @@
       <c r="E796" s="1"/>
       <c r="F796" s="1"/>
       <c r="G796" s="1"/>
-      <c r="H796" s="3"/>
+      <c r="H796" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="15.75">
       <c r="A797" s="1"/>
@@ -8931,7 +8920,7 @@
       <c r="E797" s="1"/>
       <c r="F797" s="1"/>
       <c r="G797" s="1"/>
-      <c r="H797" s="3"/>
+      <c r="H797" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="15.75">
       <c r="A798" s="1"/>
@@ -8941,7 +8930,7 @@
       <c r="E798" s="1"/>
       <c r="F798" s="1"/>
       <c r="G798" s="1"/>
-      <c r="H798" s="3"/>
+      <c r="H798" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="15.75">
       <c r="A799" s="1"/>
@@ -8951,7 +8940,7 @@
       <c r="E799" s="1"/>
       <c r="F799" s="1"/>
       <c r="G799" s="1"/>
-      <c r="H799" s="3"/>
+      <c r="H799" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="15.75">
       <c r="A800" s="1"/>
@@ -8961,7 +8950,7 @@
       <c r="E800" s="1"/>
       <c r="F800" s="1"/>
       <c r="G800" s="1"/>
-      <c r="H800" s="3"/>
+      <c r="H800" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="15.75">
       <c r="A801" s="1"/>
@@ -8971,7 +8960,7 @@
       <c r="E801" s="1"/>
       <c r="F801" s="1"/>
       <c r="G801" s="1"/>
-      <c r="H801" s="3"/>
+      <c r="H801" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="15.75">
       <c r="A802" s="1"/>
@@ -8981,7 +8970,7 @@
       <c r="E802" s="1"/>
       <c r="F802" s="1"/>
       <c r="G802" s="1"/>
-      <c r="H802" s="3"/>
+      <c r="H802" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="15.75">
       <c r="A803" s="1"/>
@@ -8991,7 +8980,7 @@
       <c r="E803" s="1"/>
       <c r="F803" s="1"/>
       <c r="G803" s="1"/>
-      <c r="H803" s="3"/>
+      <c r="H803" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="15.75">
       <c r="A804" s="1"/>
@@ -9001,7 +8990,7 @@
       <c r="E804" s="1"/>
       <c r="F804" s="1"/>
       <c r="G804" s="1"/>
-      <c r="H804" s="3"/>
+      <c r="H804" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="15.75">
       <c r="A805" s="1"/>
@@ -9011,7 +9000,7 @@
       <c r="E805" s="1"/>
       <c r="F805" s="1"/>
       <c r="G805" s="1"/>
-      <c r="H805" s="3"/>
+      <c r="H805" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="15.75">
       <c r="A806" s="1"/>
@@ -9021,7 +9010,7 @@
       <c r="E806" s="1"/>
       <c r="F806" s="1"/>
       <c r="G806" s="1"/>
-      <c r="H806" s="3"/>
+      <c r="H806" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="15.75">
       <c r="A807" s="1"/>
@@ -9031,7 +9020,7 @@
       <c r="E807" s="1"/>
       <c r="F807" s="1"/>
       <c r="G807" s="1"/>
-      <c r="H807" s="3"/>
+      <c r="H807" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="15.75">
       <c r="A808" s="1"/>
@@ -9041,7 +9030,7 @@
       <c r="E808" s="1"/>
       <c r="F808" s="1"/>
       <c r="G808" s="1"/>
-      <c r="H808" s="3"/>
+      <c r="H808" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="15.75">
       <c r="A809" s="1"/>
@@ -9051,7 +9040,7 @@
       <c r="E809" s="1"/>
       <c r="F809" s="1"/>
       <c r="G809" s="1"/>
-      <c r="H809" s="3"/>
+      <c r="H809" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="15.75">
       <c r="A810" s="1"/>
@@ -9061,7 +9050,7 @@
       <c r="E810" s="1"/>
       <c r="F810" s="1"/>
       <c r="G810" s="1"/>
-      <c r="H810" s="3"/>
+      <c r="H810" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="15.75">
       <c r="A811" s="1"/>
@@ -9071,7 +9060,7 @@
       <c r="E811" s="1"/>
       <c r="F811" s="1"/>
       <c r="G811" s="1"/>
-      <c r="H811" s="3"/>
+      <c r="H811" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="15.75">
       <c r="A812" s="1"/>
@@ -9081,7 +9070,7 @@
       <c r="E812" s="1"/>
       <c r="F812" s="1"/>
       <c r="G812" s="1"/>
-      <c r="H812" s="3"/>
+      <c r="H812" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="15.75">
       <c r="A813" s="1"/>
@@ -9091,7 +9080,7 @@
       <c r="E813" s="1"/>
       <c r="F813" s="1"/>
       <c r="G813" s="1"/>
-      <c r="H813" s="3"/>
+      <c r="H813" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="15.75">
       <c r="A814" s="1"/>
@@ -9101,7 +9090,7 @@
       <c r="E814" s="1"/>
       <c r="F814" s="1"/>
       <c r="G814" s="1"/>
-      <c r="H814" s="3"/>
+      <c r="H814" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="15.75">
       <c r="A815" s="1"/>
@@ -9111,7 +9100,7 @@
       <c r="E815" s="1"/>
       <c r="F815" s="1"/>
       <c r="G815" s="1"/>
-      <c r="H815" s="3"/>
+      <c r="H815" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="15.75">
       <c r="A816" s="1"/>
@@ -9121,7 +9110,7 @@
       <c r="E816" s="1"/>
       <c r="F816" s="1"/>
       <c r="G816" s="1"/>
-      <c r="H816" s="3"/>
+      <c r="H816" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="15.75">
       <c r="A817" s="1"/>
@@ -9131,7 +9120,7 @@
       <c r="E817" s="1"/>
       <c r="F817" s="1"/>
       <c r="G817" s="1"/>
-      <c r="H817" s="3"/>
+      <c r="H817" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="15.75">
       <c r="A818" s="1"/>
@@ -9141,7 +9130,7 @@
       <c r="E818" s="1"/>
       <c r="F818" s="1"/>
       <c r="G818" s="1"/>
-      <c r="H818" s="3"/>
+      <c r="H818" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="15.75">
       <c r="A819" s="1"/>
@@ -9151,7 +9140,7 @@
       <c r="E819" s="1"/>
       <c r="F819" s="1"/>
       <c r="G819" s="1"/>
-      <c r="H819" s="3"/>
+      <c r="H819" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="15.75">
       <c r="A820" s="1"/>
@@ -9161,7 +9150,7 @@
       <c r="E820" s="1"/>
       <c r="F820" s="1"/>
       <c r="G820" s="1"/>
-      <c r="H820" s="3"/>
+      <c r="H820" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="15.75">
       <c r="A821" s="1"/>
@@ -9171,7 +9160,7 @@
       <c r="E821" s="1"/>
       <c r="F821" s="1"/>
       <c r="G821" s="1"/>
-      <c r="H821" s="3"/>
+      <c r="H821" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="15.75">
       <c r="A822" s="1"/>
@@ -9181,7 +9170,7 @@
       <c r="E822" s="1"/>
       <c r="F822" s="1"/>
       <c r="G822" s="1"/>
-      <c r="H822" s="3"/>
+      <c r="H822" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="15.75">
       <c r="A823" s="1"/>
@@ -9191,7 +9180,7 @@
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
       <c r="G823" s="1"/>
-      <c r="H823" s="3"/>
+      <c r="H823" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="15.75">
       <c r="A824" s="1"/>
@@ -9201,7 +9190,7 @@
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
       <c r="G824" s="1"/>
-      <c r="H824" s="3"/>
+      <c r="H824" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="15.75">
       <c r="A825" s="1"/>
@@ -9211,7 +9200,7 @@
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
       <c r="G825" s="1"/>
-      <c r="H825" s="3"/>
+      <c r="H825" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="15.75">
       <c r="A826" s="1"/>
@@ -9221,7 +9210,7 @@
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
       <c r="G826" s="1"/>
-      <c r="H826" s="3"/>
+      <c r="H826" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="15.75">
       <c r="A827" s="1"/>
@@ -9231,7 +9220,7 @@
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
       <c r="G827" s="1"/>
-      <c r="H827" s="3"/>
+      <c r="H827" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="15.75">
       <c r="A828" s="1"/>
@@ -9241,7 +9230,7 @@
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
       <c r="G828" s="1"/>
-      <c r="H828" s="3"/>
+      <c r="H828" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="15.75">
       <c r="A829" s="1"/>
@@ -9251,7 +9240,7 @@
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
       <c r="G829" s="1"/>
-      <c r="H829" s="3"/>
+      <c r="H829" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="15.75">
       <c r="A830" s="1"/>
@@ -9261,7 +9250,7 @@
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
       <c r="G830" s="1"/>
-      <c r="H830" s="3"/>
+      <c r="H830" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="15.75">
       <c r="A831" s="1"/>
@@ -9271,7 +9260,7 @@
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
       <c r="G831" s="1"/>
-      <c r="H831" s="3"/>
+      <c r="H831" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="15.75">
       <c r="A832" s="1"/>
@@ -9281,7 +9270,7 @@
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
       <c r="G832" s="1"/>
-      <c r="H832" s="3"/>
+      <c r="H832" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="15.75">
       <c r="A833" s="1"/>
@@ -9291,7 +9280,7 @@
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
       <c r="G833" s="1"/>
-      <c r="H833" s="3"/>
+      <c r="H833" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="15.75">
       <c r="A834" s="1"/>
@@ -9301,7 +9290,7 @@
       <c r="E834" s="1"/>
       <c r="F834" s="1"/>
       <c r="G834" s="1"/>
-      <c r="H834" s="3"/>
+      <c r="H834" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="15.75">
       <c r="A835" s="1"/>
@@ -9311,7 +9300,7 @@
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
       <c r="G835" s="1"/>
-      <c r="H835" s="3"/>
+      <c r="H835" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="15.75">
       <c r="A836" s="1"/>
@@ -9321,7 +9310,7 @@
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
       <c r="G836" s="1"/>
-      <c r="H836" s="3"/>
+      <c r="H836" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="15.75">
       <c r="A837" s="1"/>
@@ -9331,7 +9320,7 @@
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
       <c r="G837" s="1"/>
-      <c r="H837" s="3"/>
+      <c r="H837" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="15.75">
       <c r="A838" s="1"/>
@@ -9341,7 +9330,7 @@
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
       <c r="G838" s="1"/>
-      <c r="H838" s="3"/>
+      <c r="H838" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="15.75">
       <c r="A839" s="1"/>
@@ -9351,7 +9340,7 @@
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
       <c r="G839" s="1"/>
-      <c r="H839" s="3"/>
+      <c r="H839" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="15.75">
       <c r="A840" s="1"/>
@@ -9361,7 +9350,7 @@
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
       <c r="G840" s="1"/>
-      <c r="H840" s="3"/>
+      <c r="H840" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="15.75">
       <c r="A841" s="1"/>
@@ -9371,7 +9360,7 @@
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
       <c r="G841" s="1"/>
-      <c r="H841" s="3"/>
+      <c r="H841" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="15.75">
       <c r="A842" s="1"/>
@@ -9381,7 +9370,7 @@
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
       <c r="G842" s="1"/>
-      <c r="H842" s="3"/>
+      <c r="H842" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="15.75">
       <c r="A843" s="1"/>
@@ -9391,7 +9380,7 @@
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
       <c r="G843" s="1"/>
-      <c r="H843" s="3"/>
+      <c r="H843" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="15.75">
       <c r="A844" s="1"/>
@@ -9401,7 +9390,7 @@
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
       <c r="G844" s="1"/>
-      <c r="H844" s="3"/>
+      <c r="H844" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="15.75">
       <c r="A845" s="1"/>
@@ -9411,7 +9400,7 @@
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
       <c r="G845" s="1"/>
-      <c r="H845" s="3"/>
+      <c r="H845" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="15.75">
       <c r="A846" s="1"/>
@@ -9421,7 +9410,7 @@
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
       <c r="G846" s="1"/>
-      <c r="H846" s="3"/>
+      <c r="H846" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="15.75">
       <c r="A847" s="1"/>
@@ -9431,7 +9420,7 @@
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
       <c r="G847" s="1"/>
-      <c r="H847" s="3"/>
+      <c r="H847" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="15.75">
       <c r="A848" s="1"/>
@@ -9441,7 +9430,7 @@
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
       <c r="G848" s="1"/>
-      <c r="H848" s="3"/>
+      <c r="H848" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="15.75">
       <c r="A849" s="1"/>
@@ -9451,7 +9440,7 @@
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
       <c r="G849" s="1"/>
-      <c r="H849" s="3"/>
+      <c r="H849" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="15.75">
       <c r="A850" s="1"/>
@@ -9461,7 +9450,7 @@
       <c r="E850" s="1"/>
       <c r="F850" s="1"/>
       <c r="G850" s="1"/>
-      <c r="H850" s="3"/>
+      <c r="H850" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="15.75">
       <c r="A851" s="1"/>
@@ -9471,7 +9460,7 @@
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
       <c r="G851" s="1"/>
-      <c r="H851" s="3"/>
+      <c r="H851" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="15.75">
       <c r="A852" s="1"/>
@@ -9481,7 +9470,7 @@
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
       <c r="G852" s="1"/>
-      <c r="H852" s="3"/>
+      <c r="H852" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="15.75">
       <c r="A853" s="1"/>
@@ -9491,7 +9480,7 @@
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
       <c r="G853" s="1"/>
-      <c r="H853" s="3"/>
+      <c r="H853" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="15.75">
       <c r="A854" s="1"/>
@@ -9501,7 +9490,7 @@
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
       <c r="G854" s="1"/>
-      <c r="H854" s="3"/>
+      <c r="H854" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="15.75">
       <c r="A855" s="1"/>
@@ -9511,7 +9500,7 @@
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
       <c r="G855" s="1"/>
-      <c r="H855" s="3"/>
+      <c r="H855" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="15.75">
       <c r="A856" s="1"/>
@@ -9521,7 +9510,7 @@
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
       <c r="G856" s="1"/>
-      <c r="H856" s="3"/>
+      <c r="H856" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="15.75">
       <c r="A857" s="1"/>
@@ -9531,7 +9520,7 @@
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
       <c r="G857" s="1"/>
-      <c r="H857" s="3"/>
+      <c r="H857" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="15.75">
       <c r="A858" s="1"/>
@@ -9541,7 +9530,7 @@
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
       <c r="G858" s="1"/>
-      <c r="H858" s="3"/>
+      <c r="H858" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="15.75">
       <c r="A859" s="1"/>
@@ -9551,7 +9540,7 @@
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
       <c r="G859" s="1"/>
-      <c r="H859" s="3"/>
+      <c r="H859" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="15.75">
       <c r="A860" s="1"/>
@@ -9561,7 +9550,7 @@
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
       <c r="G860" s="1"/>
-      <c r="H860" s="3"/>
+      <c r="H860" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="15.75">
       <c r="A861" s="1"/>
@@ -9571,7 +9560,7 @@
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
       <c r="G861" s="1"/>
-      <c r="H861" s="3"/>
+      <c r="H861" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="15.75">
       <c r="A862" s="1"/>
@@ -9581,7 +9570,7 @@
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
       <c r="G862" s="1"/>
-      <c r="H862" s="3"/>
+      <c r="H862" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="15.75">
       <c r="A863" s="1"/>
@@ -9591,7 +9580,7 @@
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
       <c r="G863" s="1"/>
-      <c r="H863" s="3"/>
+      <c r="H863" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="15.75">
       <c r="A864" s="1"/>
@@ -9601,7 +9590,7 @@
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
       <c r="G864" s="1"/>
-      <c r="H864" s="3"/>
+      <c r="H864" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="15.75">
       <c r="A865" s="1"/>
@@ -9611,7 +9600,7 @@
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
       <c r="G865" s="1"/>
-      <c r="H865" s="3"/>
+      <c r="H865" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="15.75">
       <c r="A866" s="1"/>
@@ -9621,7 +9610,7 @@
       <c r="E866" s="1"/>
       <c r="F866" s="1"/>
       <c r="G866" s="1"/>
-      <c r="H866" s="3"/>
+      <c r="H866" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="15.75">
       <c r="A867" s="1"/>
@@ -9631,7 +9620,7 @@
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
       <c r="G867" s="1"/>
-      <c r="H867" s="3"/>
+      <c r="H867" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="15.75">
       <c r="A868" s="1"/>
@@ -9641,7 +9630,7 @@
       <c r="E868" s="1"/>
       <c r="F868" s="1"/>
       <c r="G868" s="1"/>
-      <c r="H868" s="3"/>
+      <c r="H868" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="15.75">
       <c r="A869" s="1"/>
@@ -9651,7 +9640,7 @@
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
       <c r="G869" s="1"/>
-      <c r="H869" s="3"/>
+      <c r="H869" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="15.75">
       <c r="A870" s="1"/>
@@ -9661,7 +9650,7 @@
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
       <c r="G870" s="1"/>
-      <c r="H870" s="3"/>
+      <c r="H870" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="15.75">
       <c r="A871" s="1"/>
@@ -9671,7 +9660,7 @@
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
       <c r="G871" s="1"/>
-      <c r="H871" s="3"/>
+      <c r="H871" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="15.75">
       <c r="A872" s="1"/>
@@ -9681,7 +9670,7 @@
       <c r="E872" s="1"/>
       <c r="F872" s="1"/>
       <c r="G872" s="1"/>
-      <c r="H872" s="3"/>
+      <c r="H872" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="15.75">
       <c r="A873" s="1"/>
@@ -9691,7 +9680,7 @@
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
       <c r="G873" s="1"/>
-      <c r="H873" s="3"/>
+      <c r="H873" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="15.75">
       <c r="A874" s="1"/>
@@ -9701,7 +9690,7 @@
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
       <c r="G874" s="1"/>
-      <c r="H874" s="3"/>
+      <c r="H874" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="15.75">
       <c r="A875" s="1"/>
@@ -9711,7 +9700,7 @@
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
       <c r="G875" s="1"/>
-      <c r="H875" s="3"/>
+      <c r="H875" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="15.75">
       <c r="A876" s="1"/>
@@ -9721,7 +9710,7 @@
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
       <c r="G876" s="1"/>
-      <c r="H876" s="3"/>
+      <c r="H876" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="15.75">
       <c r="A877" s="1"/>
@@ -9731,7 +9720,7 @@
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
       <c r="G877" s="1"/>
-      <c r="H877" s="3"/>
+      <c r="H877" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="15.75">
       <c r="A878" s="1"/>
@@ -9741,7 +9730,7 @@
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
       <c r="G878" s="1"/>
-      <c r="H878" s="3"/>
+      <c r="H878" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="15.75">
       <c r="A879" s="1"/>
@@ -9751,7 +9740,7 @@
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
       <c r="G879" s="1"/>
-      <c r="H879" s="3"/>
+      <c r="H879" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="15.75">
       <c r="A880" s="1"/>
@@ -9761,7 +9750,7 @@
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
       <c r="G880" s="1"/>
-      <c r="H880" s="3"/>
+      <c r="H880" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="15.75">
       <c r="A881" s="1"/>
@@ -9771,7 +9760,7 @@
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
       <c r="G881" s="1"/>
-      <c r="H881" s="3"/>
+      <c r="H881" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="15.75">
       <c r="A882" s="1"/>
@@ -9781,7 +9770,7 @@
       <c r="E882" s="1"/>
       <c r="F882" s="1"/>
       <c r="G882" s="1"/>
-      <c r="H882" s="3"/>
+      <c r="H882" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="15.75">
       <c r="A883" s="1"/>
@@ -9791,7 +9780,7 @@
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
       <c r="G883" s="1"/>
-      <c r="H883" s="3"/>
+      <c r="H883" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="15.75">
       <c r="A884" s="1"/>
@@ -9801,7 +9790,7 @@
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
       <c r="G884" s="1"/>
-      <c r="H884" s="3"/>
+      <c r="H884" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="15.75">
       <c r="A885" s="1"/>
@@ -9811,7 +9800,7 @@
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
       <c r="G885" s="1"/>
-      <c r="H885" s="3"/>
+      <c r="H885" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="15.75">
       <c r="A886" s="1"/>
@@ -9821,7 +9810,7 @@
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
       <c r="G886" s="1"/>
-      <c r="H886" s="3"/>
+      <c r="H886" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="15.75">
       <c r="A887" s="1"/>
@@ -9831,7 +9820,7 @@
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
       <c r="G887" s="1"/>
-      <c r="H887" s="3"/>
+      <c r="H887" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="15.75">
       <c r="A888" s="1"/>
@@ -9841,7 +9830,7 @@
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
       <c r="G888" s="1"/>
-      <c r="H888" s="3"/>
+      <c r="H888" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="15.75">
       <c r="A889" s="1"/>
@@ -9851,7 +9840,7 @@
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
       <c r="G889" s="1"/>
-      <c r="H889" s="3"/>
+      <c r="H889" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="15.75">
       <c r="A890" s="1"/>
@@ -9861,7 +9850,7 @@
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
       <c r="G890" s="1"/>
-      <c r="H890" s="3"/>
+      <c r="H890" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="15.75">
       <c r="A891" s="1"/>
@@ -9871,7 +9860,7 @@
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
       <c r="G891" s="1"/>
-      <c r="H891" s="3"/>
+      <c r="H891" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="15.75">
       <c r="A892" s="1"/>
@@ -9881,7 +9870,7 @@
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
       <c r="G892" s="1"/>
-      <c r="H892" s="3"/>
+      <c r="H892" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="15.75">
       <c r="A893" s="1"/>
@@ -9891,7 +9880,7 @@
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
       <c r="G893" s="1"/>
-      <c r="H893" s="3"/>
+      <c r="H893" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="15.75">
       <c r="A894" s="1"/>
@@ -9901,7 +9890,7 @@
       <c r="E894" s="1"/>
       <c r="F894" s="1"/>
       <c r="G894" s="1"/>
-      <c r="H894" s="3"/>
+      <c r="H894" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="15.75">
       <c r="A895" s="1"/>
@@ -9911,7 +9900,7 @@
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
       <c r="G895" s="1"/>
-      <c r="H895" s="3"/>
+      <c r="H895" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="15.75">
       <c r="A896" s="1"/>
@@ -9921,7 +9910,7 @@
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
       <c r="G896" s="1"/>
-      <c r="H896" s="3"/>
+      <c r="H896" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="15.75">
       <c r="A897" s="1"/>
@@ -9931,7 +9920,7 @@
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
       <c r="G897" s="1"/>
-      <c r="H897" s="3"/>
+      <c r="H897" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="15.75">
       <c r="A898" s="1"/>
@@ -9941,7 +9930,7 @@
       <c r="E898" s="1"/>
       <c r="F898" s="1"/>
       <c r="G898" s="1"/>
-      <c r="H898" s="3"/>
+      <c r="H898" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="15.75">
       <c r="A899" s="1"/>
@@ -9951,7 +9940,7 @@
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
       <c r="G899" s="1"/>
-      <c r="H899" s="3"/>
+      <c r="H899" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="15.75">
       <c r="A900" s="1"/>
@@ -9961,7 +9950,7 @@
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
       <c r="G900" s="1"/>
-      <c r="H900" s="3"/>
+      <c r="H900" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="15.75">
       <c r="A901" s="1"/>
@@ -9971,7 +9960,7 @@
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
       <c r="G901" s="1"/>
-      <c r="H901" s="3"/>
+      <c r="H901" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="15.75">
       <c r="A902" s="1"/>
@@ -9981,7 +9970,7 @@
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
       <c r="G902" s="1"/>
-      <c r="H902" s="3"/>
+      <c r="H902" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="15.75">
       <c r="A903" s="1"/>
@@ -9991,7 +9980,7 @@
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
       <c r="G903" s="1"/>
-      <c r="H903" s="3"/>
+      <c r="H903" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="15.75">
       <c r="A904" s="1"/>
@@ -10001,7 +9990,7 @@
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
       <c r="G904" s="1"/>
-      <c r="H904" s="3"/>
+      <c r="H904" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="15.75">
       <c r="A905" s="1"/>
@@ -10011,7 +10000,7 @@
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
       <c r="G905" s="1"/>
-      <c r="H905" s="3"/>
+      <c r="H905" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="15.75">
       <c r="A906" s="1"/>
@@ -10021,7 +10010,7 @@
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
       <c r="G906" s="1"/>
-      <c r="H906" s="3"/>
+      <c r="H906" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="15.75">
       <c r="A907" s="1"/>
@@ -10031,7 +10020,7 @@
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
       <c r="G907" s="1"/>
-      <c r="H907" s="3"/>
+      <c r="H907" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="15.75">
       <c r="A908" s="1"/>
@@ -10041,7 +10030,7 @@
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
       <c r="G908" s="1"/>
-      <c r="H908" s="3"/>
+      <c r="H908" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="15.75">
       <c r="A909" s="1"/>
@@ -10051,7 +10040,7 @@
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
       <c r="G909" s="1"/>
-      <c r="H909" s="3"/>
+      <c r="H909" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="15.75">
       <c r="A910" s="1"/>
@@ -10061,7 +10050,7 @@
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
       <c r="G910" s="1"/>
-      <c r="H910" s="3"/>
+      <c r="H910" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="15.75">
       <c r="A911" s="1"/>
@@ -10071,7 +10060,7 @@
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
       <c r="G911" s="1"/>
-      <c r="H911" s="3"/>
+      <c r="H911" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="15.75">
       <c r="A912" s="1"/>
@@ -10081,7 +10070,7 @@
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
       <c r="G912" s="1"/>
-      <c r="H912" s="3"/>
+      <c r="H912" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="15.75">
       <c r="A913" s="1"/>
@@ -10091,7 +10080,7 @@
       <c r="E913" s="1"/>
       <c r="F913" s="1"/>
       <c r="G913" s="1"/>
-      <c r="H913" s="3"/>
+      <c r="H913" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="15.75">
       <c r="A914" s="1"/>
@@ -10101,7 +10090,7 @@
       <c r="E914" s="1"/>
       <c r="F914" s="1"/>
       <c r="G914" s="1"/>
-      <c r="H914" s="3"/>
+      <c r="H914" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="15.75">
       <c r="A915" s="1"/>
@@ -10111,7 +10100,7 @@
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
       <c r="G915" s="1"/>
-      <c r="H915" s="3"/>
+      <c r="H915" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="15.75">
       <c r="A916" s="1"/>
@@ -10121,7 +10110,7 @@
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
       <c r="G916" s="1"/>
-      <c r="H916" s="3"/>
+      <c r="H916" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="15.75">
       <c r="A917" s="1"/>
@@ -10131,7 +10120,7 @@
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
       <c r="G917" s="1"/>
-      <c r="H917" s="3"/>
+      <c r="H917" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="15.75">
       <c r="A918" s="1"/>
@@ -10141,7 +10130,7 @@
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
       <c r="G918" s="1"/>
-      <c r="H918" s="3"/>
+      <c r="H918" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="15.75">
       <c r="A919" s="1"/>
@@ -10151,7 +10140,7 @@
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
       <c r="G919" s="1"/>
-      <c r="H919" s="3"/>
+      <c r="H919" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="15.75">
       <c r="A920" s="1"/>
@@ -10161,7 +10150,7 @@
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
       <c r="G920" s="1"/>
-      <c r="H920" s="3"/>
+      <c r="H920" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="15.75">
       <c r="A921" s="1"/>
@@ -10171,7 +10160,7 @@
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
       <c r="G921" s="1"/>
-      <c r="H921" s="3"/>
+      <c r="H921" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="15.75">
       <c r="A922" s="1"/>
@@ -10181,7 +10170,7 @@
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
       <c r="G922" s="1"/>
-      <c r="H922" s="3"/>
+      <c r="H922" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="15.75">
       <c r="A923" s="1"/>
@@ -10191,7 +10180,7 @@
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
       <c r="G923" s="1"/>
-      <c r="H923" s="3"/>
+      <c r="H923" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="15.75">
       <c r="A924" s="1"/>
@@ -10201,7 +10190,7 @@
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
       <c r="G924" s="1"/>
-      <c r="H924" s="3"/>
+      <c r="H924" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="15.75">
       <c r="A925" s="1"/>
@@ -10211,7 +10200,7 @@
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
       <c r="G925" s="1"/>
-      <c r="H925" s="3"/>
+      <c r="H925" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="15.75">
       <c r="A926" s="1"/>
@@ -10221,7 +10210,7 @@
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
       <c r="G926" s="1"/>
-      <c r="H926" s="3"/>
+      <c r="H926" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="15.75">
       <c r="A927" s="1"/>
@@ -10231,7 +10220,7 @@
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
       <c r="G927" s="1"/>
-      <c r="H927" s="3"/>
+      <c r="H927" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="15.75">
       <c r="A928" s="1"/>
@@ -10241,7 +10230,7 @@
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
       <c r="G928" s="1"/>
-      <c r="H928" s="3"/>
+      <c r="H928" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="15.75">
       <c r="A929" s="1"/>
@@ -10251,7 +10240,7 @@
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
       <c r="G929" s="1"/>
-      <c r="H929" s="3"/>
+      <c r="H929" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="15.75">
       <c r="A930" s="1"/>
@@ -10261,7 +10250,7 @@
       <c r="E930" s="1"/>
       <c r="F930" s="1"/>
       <c r="G930" s="1"/>
-      <c r="H930" s="3"/>
+      <c r="H930" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="15.75">
       <c r="A931" s="1"/>
@@ -10271,7 +10260,7 @@
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
       <c r="G931" s="1"/>
-      <c r="H931" s="3"/>
+      <c r="H931" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="15.75">
       <c r="A932" s="1"/>
@@ -10281,7 +10270,7 @@
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
       <c r="G932" s="1"/>
-      <c r="H932" s="3"/>
+      <c r="H932" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="15.75">
       <c r="A933" s="1"/>
@@ -10291,7 +10280,7 @@
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
       <c r="G933" s="1"/>
-      <c r="H933" s="3"/>
+      <c r="H933" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="15.75">
       <c r="A934" s="1"/>
@@ -10301,7 +10290,7 @@
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
       <c r="G934" s="1"/>
-      <c r="H934" s="3"/>
+      <c r="H934" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="15.75">
       <c r="A935" s="1"/>
@@ -10311,7 +10300,7 @@
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
       <c r="G935" s="1"/>
-      <c r="H935" s="3"/>
+      <c r="H935" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="15.75">
       <c r="A936" s="1"/>
@@ -10321,7 +10310,7 @@
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
       <c r="G936" s="1"/>
-      <c r="H936" s="3"/>
+      <c r="H936" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="15.75">
       <c r="A937" s="1"/>
@@ -10331,7 +10320,7 @@
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
       <c r="G937" s="1"/>
-      <c r="H937" s="3"/>
+      <c r="H937" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="15.75">
       <c r="A938" s="1"/>
@@ -10341,7 +10330,7 @@
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
       <c r="G938" s="1"/>
-      <c r="H938" s="3"/>
+      <c r="H938" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="15.75">
       <c r="A939" s="1"/>
@@ -10351,7 +10340,7 @@
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
       <c r="G939" s="1"/>
-      <c r="H939" s="3"/>
+      <c r="H939" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="15.75">
       <c r="A940" s="1"/>
@@ -10361,7 +10350,7 @@
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
       <c r="G940" s="1"/>
-      <c r="H940" s="3"/>
+      <c r="H940" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="15.75">
       <c r="A941" s="1"/>
@@ -10371,7 +10360,7 @@
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
       <c r="G941" s="1"/>
-      <c r="H941" s="3"/>
+      <c r="H941" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="15.75">
       <c r="A942" s="1"/>
@@ -10381,7 +10370,7 @@
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
       <c r="G942" s="1"/>
-      <c r="H942" s="3"/>
+      <c r="H942" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="15.75">
       <c r="A943" s="1"/>
@@ -10391,7 +10380,7 @@
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
       <c r="G943" s="1"/>
-      <c r="H943" s="3"/>
+      <c r="H943" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="15.75">
       <c r="A944" s="1"/>
@@ -10401,7 +10390,7 @@
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
       <c r="G944" s="1"/>
-      <c r="H944" s="3"/>
+      <c r="H944" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="15.75">
       <c r="A945" s="1"/>
@@ -10411,7 +10400,7 @@
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
       <c r="G945" s="1"/>
-      <c r="H945" s="3"/>
+      <c r="H945" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="15.75">
       <c r="A946" s="1"/>
@@ -10421,7 +10410,7 @@
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>
       <c r="G946" s="1"/>
-      <c r="H946" s="3"/>
+      <c r="H946" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="15.75">
       <c r="A947" s="1"/>
@@ -10431,7 +10420,7 @@
       <c r="E947" s="1"/>
       <c r="F947" s="1"/>
       <c r="G947" s="1"/>
-      <c r="H947" s="3"/>
+      <c r="H947" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="15.75">
       <c r="A948" s="1"/>
@@ -10441,7 +10430,7 @@
       <c r="E948" s="1"/>
       <c r="F948" s="1"/>
       <c r="G948" s="1"/>
-      <c r="H948" s="3"/>
+      <c r="H948" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="15.75">
       <c r="A949" s="1"/>
@@ -10451,7 +10440,7 @@
       <c r="E949" s="1"/>
       <c r="F949" s="1"/>
       <c r="G949" s="1"/>
-      <c r="H949" s="3"/>
+      <c r="H949" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="15.75">
       <c r="A950" s="1"/>
@@ -10461,7 +10450,7 @@
       <c r="E950" s="1"/>
       <c r="F950" s="1"/>
       <c r="G950" s="1"/>
-      <c r="H950" s="3"/>
+      <c r="H950" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="15.75">
       <c r="A951" s="1"/>
@@ -10471,7 +10460,7 @@
       <c r="E951" s="1"/>
       <c r="F951" s="1"/>
       <c r="G951" s="1"/>
-      <c r="H951" s="3"/>
+      <c r="H951" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="15.75">
       <c r="A952" s="1"/>
@@ -10481,7 +10470,7 @@
       <c r="E952" s="1"/>
       <c r="F952" s="1"/>
       <c r="G952" s="1"/>
-      <c r="H952" s="3"/>
+      <c r="H952" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="15.75">
       <c r="A953" s="1"/>
@@ -10491,7 +10480,7 @@
       <c r="E953" s="1"/>
       <c r="F953" s="1"/>
       <c r="G953" s="1"/>
-      <c r="H953" s="3"/>
+      <c r="H953" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="15.75">
       <c r="A954" s="1"/>
@@ -10501,7 +10490,7 @@
       <c r="E954" s="1"/>
       <c r="F954" s="1"/>
       <c r="G954" s="1"/>
-      <c r="H954" s="3"/>
+      <c r="H954" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="15.75">
       <c r="A955" s="1"/>
@@ -10511,7 +10500,7 @@
       <c r="E955" s="1"/>
       <c r="F955" s="1"/>
       <c r="G955" s="1"/>
-      <c r="H955" s="3"/>
+      <c r="H955" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="15.75">
       <c r="A956" s="1"/>
@@ -10521,7 +10510,7 @@
       <c r="E956" s="1"/>
       <c r="F956" s="1"/>
       <c r="G956" s="1"/>
-      <c r="H956" s="3"/>
+      <c r="H956" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="15.75">
       <c r="A957" s="1"/>
@@ -10531,7 +10520,7 @@
       <c r="E957" s="1"/>
       <c r="F957" s="1"/>
       <c r="G957" s="1"/>
-      <c r="H957" s="3"/>
+      <c r="H957" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="15.75">
       <c r="A958" s="1"/>
@@ -10541,7 +10530,7 @@
       <c r="E958" s="1"/>
       <c r="F958" s="1"/>
       <c r="G958" s="1"/>
-      <c r="H958" s="3"/>
+      <c r="H958" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="15.75">
       <c r="A959" s="1"/>
@@ -10551,7 +10540,7 @@
       <c r="E959" s="1"/>
       <c r="F959" s="1"/>
       <c r="G959" s="1"/>
-      <c r="H959" s="3"/>
+      <c r="H959" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="15.75">
       <c r="A960" s="1"/>
@@ -10561,7 +10550,7 @@
       <c r="E960" s="1"/>
       <c r="F960" s="1"/>
       <c r="G960" s="1"/>
-      <c r="H960" s="3"/>
+      <c r="H960" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="15.75">
       <c r="A961" s="1"/>
@@ -10571,7 +10560,7 @@
       <c r="E961" s="1"/>
       <c r="F961" s="1"/>
       <c r="G961" s="1"/>
-      <c r="H961" s="3"/>
+      <c r="H961" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="15.75">
       <c r="A962" s="1"/>
@@ -10581,7 +10570,7 @@
       <c r="E962" s="1"/>
       <c r="F962" s="1"/>
       <c r="G962" s="1"/>
-      <c r="H962" s="3"/>
+      <c r="H962" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="15.75">
       <c r="A963" s="1"/>
@@ -10591,7 +10580,7 @@
       <c r="E963" s="1"/>
       <c r="F963" s="1"/>
       <c r="G963" s="1"/>
-      <c r="H963" s="3"/>
+      <c r="H963" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="15.75">
       <c r="A964" s="1"/>
@@ -10601,7 +10590,7 @@
       <c r="E964" s="1"/>
       <c r="F964" s="1"/>
       <c r="G964" s="1"/>
-      <c r="H964" s="3"/>
+      <c r="H964" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="15.75">
       <c r="A965" s="1"/>
@@ -10611,7 +10600,7 @@
       <c r="E965" s="1"/>
       <c r="F965" s="1"/>
       <c r="G965" s="1"/>
-      <c r="H965" s="3"/>
+      <c r="H965" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="15.75">
       <c r="A966" s="1"/>
@@ -10621,7 +10610,7 @@
       <c r="E966" s="1"/>
       <c r="F966" s="1"/>
       <c r="G966" s="1"/>
-      <c r="H966" s="3"/>
+      <c r="H966" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="15.75">
       <c r="A967" s="1"/>
@@ -10631,7 +10620,7 @@
       <c r="E967" s="1"/>
       <c r="F967" s="1"/>
       <c r="G967" s="1"/>
-      <c r="H967" s="3"/>
+      <c r="H967" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="15.75">
       <c r="A968" s="1"/>
@@ -10641,7 +10630,7 @@
       <c r="E968" s="1"/>
       <c r="F968" s="1"/>
       <c r="G968" s="1"/>
-      <c r="H968" s="3"/>
+      <c r="H968" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="15.75">
       <c r="A969" s="1"/>
@@ -10651,7 +10640,7 @@
       <c r="E969" s="1"/>
       <c r="F969" s="1"/>
       <c r="G969" s="1"/>
-      <c r="H969" s="3"/>
+      <c r="H969" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="15.75">
       <c r="A970" s="1"/>
@@ -10661,7 +10650,7 @@
       <c r="E970" s="1"/>
       <c r="F970" s="1"/>
       <c r="G970" s="1"/>
-      <c r="H970" s="3"/>
+      <c r="H970" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="15.75">
       <c r="A971" s="1"/>
@@ -10671,7 +10660,7 @@
       <c r="E971" s="1"/>
       <c r="F971" s="1"/>
       <c r="G971" s="1"/>
-      <c r="H971" s="3"/>
+      <c r="H971" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="15.75">
       <c r="A972" s="1"/>
@@ -10681,7 +10670,7 @@
       <c r="E972" s="1"/>
       <c r="F972" s="1"/>
       <c r="G972" s="1"/>
-      <c r="H972" s="3"/>
+      <c r="H972" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="15.75">
       <c r="A973" s="1"/>
@@ -10691,7 +10680,7 @@
       <c r="E973" s="1"/>
       <c r="F973" s="1"/>
       <c r="G973" s="1"/>
-      <c r="H973" s="3"/>
+      <c r="H973" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="15.75">
       <c r="A974" s="1"/>
@@ -10701,7 +10690,7 @@
       <c r="E974" s="1"/>
       <c r="F974" s="1"/>
       <c r="G974" s="1"/>
-      <c r="H974" s="3"/>
+      <c r="H974" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="15.75">
       <c r="A975" s="1"/>
@@ -10711,7 +10700,7 @@
       <c r="E975" s="1"/>
       <c r="F975" s="1"/>
       <c r="G975" s="1"/>
-      <c r="H975" s="3"/>
+      <c r="H975" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="15.75">
       <c r="A976" s="1"/>
@@ -10721,7 +10710,7 @@
       <c r="E976" s="1"/>
       <c r="F976" s="1"/>
       <c r="G976" s="1"/>
-      <c r="H976" s="3"/>
+      <c r="H976" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="15.75">
       <c r="A977" s="1"/>
@@ -10731,7 +10720,7 @@
       <c r="E977" s="1"/>
       <c r="F977" s="1"/>
       <c r="G977" s="1"/>
-      <c r="H977" s="3"/>
+      <c r="H977" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="15.75">
       <c r="A978" s="1"/>
@@ -10741,7 +10730,7 @@
       <c r="E978" s="1"/>
       <c r="F978" s="1"/>
       <c r="G978" s="1"/>
-      <c r="H978" s="3"/>
+      <c r="H978" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="15.75">
       <c r="A979" s="1"/>
@@ -10751,7 +10740,7 @@
       <c r="E979" s="1"/>
       <c r="F979" s="1"/>
       <c r="G979" s="1"/>
-      <c r="H979" s="3"/>
+      <c r="H979" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="15.75">
       <c r="A980" s="1"/>
@@ -10761,7 +10750,7 @@
       <c r="E980" s="1"/>
       <c r="F980" s="1"/>
       <c r="G980" s="1"/>
-      <c r="H980" s="3"/>
+      <c r="H980" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="15.75">
       <c r="A981" s="1"/>
@@ -10771,7 +10760,7 @@
       <c r="E981" s="1"/>
       <c r="F981" s="1"/>
       <c r="G981" s="1"/>
-      <c r="H981" s="3"/>
+      <c r="H981" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="15.75">
       <c r="A982" s="1"/>
@@ -10781,7 +10770,7 @@
       <c r="E982" s="1"/>
       <c r="F982" s="1"/>
       <c r="G982" s="1"/>
-      <c r="H982" s="3"/>
+      <c r="H982" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="15.75">
       <c r="A983" s="1"/>
@@ -10791,7 +10780,7 @@
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
       <c r="G983" s="1"/>
-      <c r="H983" s="3"/>
+      <c r="H983" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="15.75">
       <c r="A984" s="1"/>
@@ -10801,7 +10790,7 @@
       <c r="E984" s="1"/>
       <c r="F984" s="1"/>
       <c r="G984" s="1"/>
-      <c r="H984" s="3"/>
+      <c r="H984" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="15.75">
       <c r="A985" s="1"/>
@@ -10811,7 +10800,7 @@
       <c r="E985" s="1"/>
       <c r="F985" s="1"/>
       <c r="G985" s="1"/>
-      <c r="H985" s="3"/>
+      <c r="H985" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="15.75">
       <c r="A986" s="1"/>
@@ -10821,7 +10810,7 @@
       <c r="E986" s="1"/>
       <c r="F986" s="1"/>
       <c r="G986" s="1"/>
-      <c r="H986" s="3"/>
+      <c r="H986" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="15.75">
       <c r="A987" s="1"/>
@@ -10831,7 +10820,7 @@
       <c r="E987" s="1"/>
       <c r="F987" s="1"/>
       <c r="G987" s="1"/>
-      <c r="H987" s="3"/>
+      <c r="H987" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="15.75">
       <c r="A988" s="1"/>
@@ -10841,7 +10830,7 @@
       <c r="E988" s="1"/>
       <c r="F988" s="1"/>
       <c r="G988" s="1"/>
-      <c r="H988" s="3"/>
+      <c r="H988" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="15.75">
       <c r="A989" s="1"/>
@@ -10851,7 +10840,7 @@
       <c r="E989" s="1"/>
       <c r="F989" s="1"/>
       <c r="G989" s="1"/>
-      <c r="H989" s="3"/>
+      <c r="H989" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="15.75">
       <c r="A990" s="1"/>
@@ -10861,7 +10850,7 @@
       <c r="E990" s="1"/>
       <c r="F990" s="1"/>
       <c r="G990" s="1"/>
-      <c r="H990" s="3"/>
+      <c r="H990" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="15.75">
       <c r="A991" s="1"/>
@@ -10871,7 +10860,7 @@
       <c r="E991" s="1"/>
       <c r="F991" s="1"/>
       <c r="G991" s="1"/>
-      <c r="H991" s="3"/>
+      <c r="H991" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="15.75">
       <c r="A992" s="1"/>
@@ -10881,7 +10870,7 @@
       <c r="E992" s="1"/>
       <c r="F992" s="1"/>
       <c r="G992" s="1"/>
-      <c r="H992" s="3"/>
+      <c r="H992" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="15.75">
       <c r="A993" s="1"/>
@@ -10891,7 +10880,7 @@
       <c r="E993" s="1"/>
       <c r="F993" s="1"/>
       <c r="G993" s="1"/>
-      <c r="H993" s="3"/>
+      <c r="H993" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="15.75">
       <c r="A994" s="1"/>
@@ -10901,7 +10890,7 @@
       <c r="E994" s="1"/>
       <c r="F994" s="1"/>
       <c r="G994" s="1"/>
-      <c r="H994" s="3"/>
+      <c r="H994" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="15.75">
       <c r="A995" s="1"/>
@@ -10911,7 +10900,7 @@
       <c r="E995" s="1"/>
       <c r="F995" s="1"/>
       <c r="G995" s="1"/>
-      <c r="H995" s="3"/>
+      <c r="H995" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="15.75">
       <c r="A996" s="1"/>
@@ -10921,7 +10910,7 @@
       <c r="E996" s="1"/>
       <c r="F996" s="1"/>
       <c r="G996" s="1"/>
-      <c r="H996" s="3"/>
+      <c r="H996" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="15.75">
       <c r="A997" s="1"/>
@@ -10931,7 +10920,7 @@
       <c r="E997" s="1"/>
       <c r="F997" s="1"/>
       <c r="G997" s="1"/>
-      <c r="H997" s="3"/>
+      <c r="H997" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="15.75">
       <c r="A998" s="1"/>
@@ -10941,7 +10930,7 @@
       <c r="E998" s="1"/>
       <c r="F998" s="1"/>
       <c r="G998" s="1"/>
-      <c r="H998" s="3"/>
+      <c r="H998" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="15.75">
       <c r="A999" s="1"/>
@@ -10951,7 +10940,7 @@
       <c r="E999" s="1"/>
       <c r="F999" s="1"/>
       <c r="G999" s="1"/>
-      <c r="H999" s="3"/>
+      <c r="H999" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="15.75">
       <c r="A1000" s="1"/>
@@ -10961,7 +10950,7 @@
       <c r="E1000" s="1"/>
       <c r="F1000" s="1"/>
       <c r="G1000" s="1"/>
-      <c r="H1000" s="3"/>
+      <c r="H1000" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/etl/operacoes-credito/resources/fields-doc.xlsx
+++ b/etl/operacoes-credito/resources/fields-doc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>codigo</t>
   </si>
@@ -160,9 +160,6 @@
     <t>origem</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>qt_numero_de_operacoes</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>m</t>
@@ -318,7 +318,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +329,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -371,7 +377,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -936,59 +942,53 @@
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="1"/>
@@ -1145,9 +1145,7 @@
       <c r="F23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
@@ -1181,9 +1179,7 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>94</v>
       </c>
@@ -1201,9 +1197,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
         <v>97</v>
       </c>

--- a/etl/operacoes-credito/resources/fields-doc.xlsx
+++ b/etl/operacoes-credito/resources/fields-doc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>codigo</t>
   </si>
@@ -67,7 +67,7 @@
     <t>data_base</t>
   </si>
   <si>
-    <t>dt_data_base</t>
+    <t>dt_base</t>
   </si>
   <si>
     <t>d</t>
@@ -187,10 +187,7 @@
     <t>numero_de_operacoes</t>
   </si>
   <si>
-    <t>qt_numero_de_operacoes</t>
-  </si>
-  <si>
-    <t/>
+    <t>qt_operacoes</t>
   </si>
   <si>
     <t>m</t>
@@ -312,13 +309,19 @@
   <si>
     <t>Ativos Problemáticos - Carteira Inadimplida Arrastada</t>
   </si>
+  <si>
+    <t>Período (Ano)</t>
+  </si>
+  <si>
+    <t>dt_ano</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,12 +332,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -366,19 +363,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -694,17 +685,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="59.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="88.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="117.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="59.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="88.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="117.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -746,7 +737,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -762,7 +753,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -784,7 +775,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -806,7 +797,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -828,7 +819,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -850,7 +841,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -872,7 +863,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -894,7 +885,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -910,7 +901,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -932,7 +923,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -948,7 +939,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -972,7 +963,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -988,21 +979,19 @@
       <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1010,15 +999,15 @@
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1026,15 +1015,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1042,15 +1031,15 @@
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1058,15 +1047,15 @@
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1074,15 +1063,15 @@
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1090,15 +1079,15 @@
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1106,68 +1095,68 @@
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
@@ -1175,16 +1164,16 @@
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1193,26 +1182,32 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
     </row>
